--- a/WIP/Documents/Report 5/Test Result/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/Test Result/WS_Integration Test Case_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01\WIP\Documents\Report 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01 (GitHub Desktop)\WIP\Documents\Report 5\Test Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -6141,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="D11" s="76">
         <f>User_Function!A6</f>
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E11" s="76">
         <f>User_Function!B6</f>
@@ -6311,15 +6311,15 @@
       </c>
       <c r="F11" s="76">
         <f>User_Function!C6</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11" s="76">
         <f>User_Function!D6</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="77">
         <f>User_Function!E6</f>
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="D12" s="76">
         <f>Admin_Function!A6</f>
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E12" s="76">
         <f>Admin_Function!B6</f>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="F12" s="76">
         <f>Admin_Function!C6</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12" s="76">
         <f>Admin_Function!D6</f>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D13" s="79">
         <f>SUM(D9:D12)</f>
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="E13" s="79">
         <f>SUM(E9:E12)</f>
@@ -6367,15 +6367,15 @@
       </c>
       <c r="F13" s="79">
         <f>SUM(F9:F12)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G13" s="79">
         <f>SUM(G9:G12)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13" s="80">
         <f>SUM(H9:H12)</f>
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6397,7 +6397,7 @@
       <c r="D15" s="70"/>
       <c r="E15" s="85">
         <f>(D13+E13)*100/(H13-G13)</f>
-        <v>92.452830188679243</v>
+        <v>100</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>43</v>
@@ -6414,7 +6414,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="85">
         <f>D13*100/(H13-G13)</f>
-        <v>89.622641509433961</v>
+        <v>97.183098591549296</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>43</v>
@@ -6771,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV176"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159:G176"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -8068,7 +8068,7 @@
     <row r="6" spans="1:252" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G335,"Pass")</f>
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G782,"Fail")</f>
@@ -8076,15 +8076,15 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G782,"N/A")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="258">
-        <f>COUNTA(A12:A179)*2</f>
-        <v>304</v>
+        <f>COUNTA(F12:F181)*2</f>
+        <v>298</v>
       </c>
       <c r="F6" s="258"/>
       <c r="G6" s="258"/>
@@ -18738,10 +18738,10 @@
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G47" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H47" s="112">
         <v>42381</v>
@@ -18999,10 +18999,10 @@
       </c>
       <c r="E48" s="146"/>
       <c r="F48" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G48" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H48" s="112">
         <v>42381</v>
@@ -19260,10 +19260,10 @@
       </c>
       <c r="E49" s="146"/>
       <c r="F49" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G49" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H49" s="112">
         <v>42381</v>
@@ -19521,10 +19521,10 @@
       </c>
       <c r="E50" s="146"/>
       <c r="F50" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G50" s="117" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H50" s="112">
         <v>42381</v>
@@ -30297,10 +30297,10 @@
       </c>
       <c r="E138" s="163"/>
       <c r="F138" s="117" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G138" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H138" s="112">
         <v>42412</v>
@@ -31390,8 +31390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -31494,7 +31494,7 @@
     <row r="6" spans="1:10" s="137" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="130">
         <f>COUNTIF(F11:G314,"Pass")</f>
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B6" s="101">
         <f>COUNTIF(F11:G761,"Fail")</f>
@@ -31502,7 +31502,7 @@
       </c>
       <c r="C6" s="101">
         <f>E6-D6-B6-A6</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" s="102">
         <f>COUNTIF(F11:G761,"N/A")</f>
@@ -33071,10 +33071,10 @@
       </c>
       <c r="E69" s="168"/>
       <c r="F69" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G69" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H69" s="242">
         <v>42412</v>
@@ -33098,10 +33098,10 @@
       </c>
       <c r="E70" s="168"/>
       <c r="F70" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G70" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H70" s="242">
         <v>42412</v>
@@ -33125,10 +33125,10 @@
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G71" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H71" s="242">
         <v>42412</v>
@@ -33152,10 +33152,10 @@
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G72" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H72" s="242">
         <v>42412</v>
@@ -33179,10 +33179,10 @@
       </c>
       <c r="E73" s="168"/>
       <c r="F73" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G73" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H73" s="242">
         <v>42412</v>
@@ -33206,10 +33206,10 @@
       </c>
       <c r="E74" s="168"/>
       <c r="F74" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G74" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H74" s="242">
         <v>42412</v>
@@ -33233,10 +33233,10 @@
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G75" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H75" s="242">
         <v>42412</v>
@@ -33260,10 +33260,10 @@
       </c>
       <c r="E76" s="168"/>
       <c r="F76" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G76" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H76" s="242">
         <v>42412</v>
@@ -33287,10 +33287,10 @@
       </c>
       <c r="E77" s="168"/>
       <c r="F77" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G77" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H77" s="242">
         <v>42412</v>
@@ -33314,10 +33314,10 @@
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G78" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H78" s="242">
         <v>42412</v>
@@ -33341,10 +33341,10 @@
       </c>
       <c r="E79" s="168"/>
       <c r="F79" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G79" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H79" s="242">
         <v>42412</v>
@@ -33368,10 +33368,10 @@
       </c>
       <c r="E80" s="168"/>
       <c r="F80" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G80" s="117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H80" s="242">
         <v>42412</v>

--- a/WIP/Documents/Report 5/Test Result/WS_Integration Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/Test Result/WS_Integration Test Case_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WingS\201609JS01 (GitHub Desktop)\WIP\Documents\Report 5\Test Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\WIP\Documents\Report 5\Test Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="741">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -817,42 +817,6 @@
 4. User is logged in</t>
   </si>
   <si>
-    <t>Tên đăng nhập không được để trống</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập chỉ gồm chữ và số</t>
-  </si>
-  <si>
-    <t>Nhập lại mật khẩu không được để trống</t>
-  </si>
-  <si>
-    <t>Tên đầy đủ không được để trống</t>
-  </si>
-  <si>
-    <t>Tên đầy đủ phải dài hơn 6 kí tự</t>
-  </si>
-  <si>
-    <t>Email không được để trống</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập không đúng</t>
-  </si>
-  <si>
-    <t>Tài khoản của bạn đã được xác nhận rồi! Vui lòng Đăng nhập để sử dụng trang web.</t>
-  </si>
-  <si>
-    <t>Xảy ra lỗi Exception!</t>
-  </si>
-  <si>
-    <t>Bạn đã đăng ký thành công, hãy đăng nhập!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Địa chỉ Email đã được sử dụng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mã xác nhận không đúng</t>
-  </si>
-  <si>
     <t>1. Go to wings.com
 2. Click on Login button in header
 3. Input "!!!!!@@@SS" to User name text box</t>
@@ -875,9 +839,6 @@
  - wingstest01
 - 12345678
 4. Click on 'Đăng nhập' button</t>
-  </si>
-  <si>
-    <t>Sai tên đăng nhập hoặc mật khẩu!</t>
   </si>
   <si>
     <r>
@@ -947,43 +908,7 @@
 </t>
   </si>
   <si>
-    <t>Tên đăng nhập đã được sử dụng</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập phải ngắn hơn 20 kí tự</t>
-  </si>
-  <si>
-    <t>Mật khẩu không được để trống</t>
-  </si>
-  <si>
-    <t>Mật khẩu phải dài hơn 8 kí tự</t>
-  </si>
-  <si>
-    <t>Mật khẩu phải ngắn hơn 20 kí tự</t>
-  </si>
-  <si>
-    <t>Nhập lại mật khẩu không giống</t>
-  </si>
-  <si>
-    <t>Tên đầy đủ phải ngắn hơn 50 kí tự</t>
-  </si>
-  <si>
-    <t>Tên đầy đủ không được chứa kí tự đặc biệt và số</t>
-  </si>
-  <si>
-    <t>Email không đúng định dạng</t>
-  </si>
-  <si>
     <t>Advance Searching</t>
-  </si>
-  <si>
-    <t>Tài khoản hoặc email không tồn tại!</t>
-  </si>
-  <si>
-    <t>Gửi email thất bại!</t>
-  </si>
-  <si>
-    <t>Một email đã được gửi tới địa chỉ email đăng kí của bạn!</t>
   </si>
   <si>
     <r>
@@ -2133,12 +2058,6 @@
 5. Click "Gửi"</t>
   </si>
   <si>
-    <t>Cần nhập tiêu đề tin nhắn</t>
-  </si>
-  <si>
-    <t>Cần nhập nội dung tin nhắn</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1.The Homepage is displayed 
 2. Go to user homepage
@@ -3463,6 +3382,124 @@
   <si>
     <t>TuanDV</t>
   </si>
+  <si>
+    <t>Bạn chưa nhập Email</t>
+  </si>
+  <si>
+    <t>Email sai định dạng</t>
+  </si>
+  <si>
+    <t>Bạn chưa nhập tài khoản hoặc email</t>
+  </si>
+  <si>
+    <t>Bạn chưa nhập mật khẩu</t>
+  </si>
+  <si>
+    <t>Mật khẩu không giống nhau</t>
+  </si>
+  <si>
+    <t>Sai mật khẩu hoặc tài khoản không tồn tại</t>
+  </si>
+  <si>
+    <t>Tên tài khoản từ 8 đến 20 ký tự</t>
+  </si>
+  <si>
+    <t>Tên tài khoản tối đa 20 kí tự</t>
+  </si>
+  <si>
+    <t>Tên tài khoản chỉ gồm chữ và số</t>
+  </si>
+  <si>
+    <t>Bạn chưa nhập tên</t>
+  </si>
+  <si>
+    <t>Tài khoản bị khóa hoặc chưa xác nhận Email!</t>
+  </si>
+  <si>
+    <t>Mật khẩu phải từ 8 đến 50 kí tự</t>
+  </si>
+  <si>
+    <t>Tên đầy đủ tối thiểu 6 kí tự</t>
+  </si>
+  <si>
+    <t>Tên dự án tối thiểu 10 kí tự</t>
+  </si>
+  <si>
+    <t>Tên dự án tối đa 60 kí tự</t>
+  </si>
+  <si>
+    <t>Bạn chưa nhập tên dự án</t>
+  </si>
+  <si>
+    <t>Phải là chữ số và lớn hơn 1,000,000</t>
+  </si>
+  <si>
+    <t>Bạn chưa nhập số tiền gây quỹ</t>
+  </si>
+  <si>
+    <t>Xin hãy xem lại trang thông tin cơ bản, các trường (kể cả ảnh dự án) PHẢI được điền đầy đủ và hợp lệ
+Xin hãy xem lại trang câu chuyện! Các trường PHẢI được nhập đầy đủ (trừ video)</t>
+  </si>
+  <si>
+    <t>Mô tả ngắn phải từ 30 đến 135 kí tự</t>
+  </si>
+  <si>
+    <t>Bạn chưa nhập mô tả ngắn</t>
+  </si>
+  <si>
+    <t>Mô tả ít nhất 135 kí tự</t>
+  </si>
+  <si>
+    <t>Tiêu đề ít nhất 10 ký tự</t>
+  </si>
+  <si>
+    <t>Mô tả ít nhất 30 kí tự</t>
+  </si>
+  <si>
+    <t>Câu hỏi ít nhất 10 ký tự</t>
+  </si>
+  <si>
+    <t>Câu trả lời hỏi ít nhất 10 ký tự</t>
+  </si>
+  <si>
+    <t>Bình luận tối thiểu từ 10 đến 500 kí tự.</t>
+  </si>
+  <si>
+    <t>Email này đã được sử dụng</t>
+  </si>
+  <si>
+    <t>Tên đầy đủ tối đa 20 kí tự</t>
+  </si>
+  <si>
+    <t>Tài khoản không tồn tại</t>
+  </si>
+  <si>
+    <t>Bạn đã gửi báo cáo thành công, cảm ơn bạn đã dùng dịch vụ của chúng tôi.</t>
+  </si>
+  <si>
+    <t> Nhập lại mật khẩu không được để trống</t>
+  </si>
+  <si>
+    <t> Nhập lại mật khẩu không giống</t>
+  </si>
+  <si>
+    <t>MS32</t>
+  </si>
+  <si>
+    <t>Đã cập nhật thông tin thành công</t>
+  </si>
+  <si>
+    <t>MS33</t>
+  </si>
+  <si>
+    <t>Vui lòng điền vào trường này</t>
+  </si>
+  <si>
+    <t>MS34</t>
+  </si>
+  <si>
+    <t>Bạn đã gửi tin nhắn thành công, hãy kiểm tra tại Tin nhắn</t>
+  </si>
 </sst>
 </file>
 
@@ -3471,7 +3508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3694,17 +3731,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -3786,7 +3812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -4521,6 +4547,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4532,7 +4571,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4958,9 +4997,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5076,11 +5112,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5238,6 +5269,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5718,13 +5762,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="243" t="s">
+      <c r="C2" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -5735,11 +5779,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="240" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -5751,28 +5795,28 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="240" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="246" t="str">
+      <c r="C6" s="242" t="str">
         <f>C5&amp;"_"&amp;"Integration Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Case_v1.0</v>
       </c>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -5781,10 +5825,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="245"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -5946,39 +5990,39 @@
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250" t="str">
+      <c r="C3" s="245"/>
+      <c r="D3" s="246" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="250" t="str">
+      <c r="C4" s="245"/>
+      <c r="D4" s="246" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
     </row>
     <row r="5" spans="2:6" s="35" customFormat="1" ht="72" customHeight="1">
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="248" t="s">
+      <c r="C5" s="243"/>
+      <c r="D5" s="244" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="36"/>
@@ -6141,7 +6185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -6156,15 +6200,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="62"/>
@@ -6180,15 +6224,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="250" t="str">
+      <c r="C3" s="246" t="str">
         <f>Cover!C4</f>
         <v>WingS</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251" t="s">
+      <c r="D3" s="246"/>
+      <c r="E3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="251"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="10" t="s">
         <v>180</v>
       </c>
@@ -6198,17 +6242,17 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="250" t="str">
+      <c r="C4" s="246" t="str">
         <f>Cover!C5</f>
         <v>WS</v>
       </c>
-      <c r="D4" s="250"/>
-      <c r="E4" s="251" t="s">
+      <c r="D4" s="246"/>
+      <c r="E4" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="251"/>
+      <c r="F4" s="247"/>
       <c r="G4" s="10" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="H4" s="65"/>
     </row>
@@ -6216,15 +6260,15 @@
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="250" t="str">
+      <c r="C5" s="246" t="str">
         <f>C4&amp;"_"&amp;"Integration Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Integration Test Report_v1.0</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="251" t="s">
+      <c r="D5" s="246"/>
+      <c r="E5" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="251"/>
+      <c r="F5" s="247"/>
       <c r="G5" s="115"/>
       <c r="H5" s="67"/>
     </row>
@@ -6233,12 +6277,12 @@
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="62"/>
@@ -6452,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -6467,11 +6511,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="250" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
@@ -6485,285 +6529,339 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="203" t="s">
-        <v>185</v>
+      <c r="B4" s="161" t="s">
+        <v>702</v>
       </c>
       <c r="C4" s="161"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="203" t="s">
-        <v>185</v>
+      <c r="B5" s="161" t="s">
+        <v>703</v>
       </c>
       <c r="C5" s="161"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="204" t="s">
-        <v>215</v>
+      <c r="B6" s="161" t="s">
+        <v>704</v>
       </c>
       <c r="C6" s="161"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="204" t="s">
-        <v>186</v>
+      <c r="B7" s="161" t="s">
+        <v>705</v>
       </c>
       <c r="C7" s="161"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="203" t="s">
-        <v>214</v>
+      <c r="B8" s="161" t="s">
+        <v>706</v>
       </c>
       <c r="C8" s="161"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="204" t="s">
-        <v>216</v>
+      <c r="B9" s="161" t="s">
+        <v>707</v>
       </c>
       <c r="C9" s="161"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="204" t="s">
-        <v>217</v>
+      <c r="B10" s="161" t="s">
+        <v>708</v>
       </c>
       <c r="C10" s="161"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="204" t="s">
-        <v>218</v>
+      <c r="B11" s="161" t="s">
+        <v>709</v>
       </c>
       <c r="C11" s="161"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="204" t="s">
-        <v>187</v>
+      <c r="B12" s="161" t="s">
+        <v>710</v>
       </c>
       <c r="C12" s="161"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="204" t="s">
-        <v>219</v>
+      <c r="B13" s="161" t="s">
+        <v>711</v>
       </c>
       <c r="C13" s="161"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="204" t="s">
-        <v>188</v>
+      <c r="B14" s="257" t="s">
+        <v>712</v>
       </c>
       <c r="C14" s="161"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="160" t="s">
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="204" t="s">
-        <v>189</v>
+      <c r="B15" s="259" t="s">
+        <v>713</v>
       </c>
       <c r="C15" s="161"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="160" t="s">
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="204" t="s">
-        <v>220</v>
+      <c r="B16" s="259" t="s">
+        <v>714</v>
       </c>
       <c r="C16" s="161"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="160" t="s">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="258" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="204" t="s">
-        <v>221</v>
+      <c r="B17" s="259" t="s">
+        <v>715</v>
       </c>
       <c r="C17" s="161"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="160" t="s">
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="204" t="s">
-        <v>190</v>
+      <c r="B18" s="259" t="s">
+        <v>716</v>
       </c>
       <c r="C18" s="161"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="160" t="s">
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="204" t="s">
-        <v>222</v>
+      <c r="B19" s="257" t="s">
+        <v>717</v>
       </c>
       <c r="C19" s="161"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="160" t="s">
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="203" t="s">
-        <v>195</v>
+      <c r="B20" s="257" t="s">
+        <v>718</v>
       </c>
       <c r="C20" s="161"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
-      <c r="A21" s="160" t="s">
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="258" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="203" t="s">
-        <v>191</v>
+      <c r="B21" s="257" t="s">
+        <v>719</v>
       </c>
       <c r="C21" s="161"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="160" t="s">
+    <row r="22" spans="1:3" ht="60">
+      <c r="A22" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="203" t="s">
-        <v>196</v>
+      <c r="B22" s="260" t="s">
+        <v>720</v>
       </c>
       <c r="C22" s="161"/>
     </row>
-    <row r="23" spans="1:3" ht="31.5">
-      <c r="A23" s="160" t="s">
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="205" t="s">
-        <v>192</v>
+      <c r="B23" s="259" t="s">
+        <v>721</v>
       </c>
       <c r="C23" s="161"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="160" t="s">
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="203" t="s">
-        <v>193</v>
+      <c r="B24" s="259" t="s">
+        <v>722</v>
       </c>
       <c r="C24" s="161"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="160" t="s">
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="258" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="203" t="s">
-        <v>194</v>
+      <c r="B25" s="259" t="s">
+        <v>723</v>
       </c>
       <c r="C25" s="161"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="162" t="s">
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="203" t="s">
-        <v>202</v>
+      <c r="B26" s="259" t="s">
+        <v>724</v>
       </c>
       <c r="C26" s="161"/>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>224</v>
+      <c r="B27" s="259" t="s">
+        <v>725</v>
       </c>
       <c r="C27" s="161"/>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="161" t="s">
-        <v>225</v>
+      <c r="B28" s="259" t="s">
+        <v>726</v>
       </c>
       <c r="C28" s="161"/>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="161" t="s">
-        <v>226</v>
+      <c r="B29" s="259" t="s">
+        <v>727</v>
       </c>
       <c r="C29" s="161"/>
     </row>
     <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="161" t="s">
-        <v>462</v>
+      <c r="B30" s="259" t="s">
+        <v>728</v>
       </c>
       <c r="C30" s="161"/>
     </row>
     <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="161" t="s">
-        <v>463</v>
+      <c r="B31" s="259" t="s">
+        <v>729</v>
       </c>
       <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="161"/>
+      <c r="B32" s="259" t="s">
+        <v>730</v>
+      </c>
       <c r="C32" s="161"/>
     </row>
     <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="161"/>
+      <c r="B33" s="259" t="s">
+        <v>731</v>
+      </c>
       <c r="C33" s="161"/>
     </row>
     <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="161"/>
+      <c r="B34" s="259" t="s">
+        <v>732</v>
+      </c>
       <c r="C34" s="161"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="261" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="259" t="s">
+        <v>733</v>
+      </c>
+      <c r="C35" s="161"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="261" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="259" t="s">
+        <v>734</v>
+      </c>
+      <c r="C36" s="161"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="261" t="s">
+        <v>735</v>
+      </c>
+      <c r="B37" s="259" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" s="161"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="261" t="s">
+        <v>737</v>
+      </c>
+      <c r="B38" s="259" t="s">
+        <v>738</v>
+      </c>
+      <c r="C38" s="161"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="261" t="s">
+        <v>739</v>
+      </c>
+      <c r="B39" s="259" t="s">
+        <v>740</v>
+      </c>
+      <c r="C39" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B39" r:id="rId1" location="/Message" display="http://localhost:2710/ - /Message"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7045,14 +7143,14 @@
       <c r="A2" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="H2" s="149" t="s">
         <v>22</v>
       </c>
@@ -7300,14 +7398,14 @@
       <c r="A3" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
       <c r="H3" s="149" t="s">
         <v>24</v>
       </c>
@@ -7555,14 +7653,14 @@
       <c r="A4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="252" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
       <c r="H4" s="149" t="s">
         <v>27</v>
       </c>
@@ -7812,16 +7910,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="D5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="253" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
       <c r="H5" s="150" t="s">
         <v>26</v>
       </c>
@@ -8082,12 +8180,12 @@
         <f>COUNTIF(F11:G782,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="258">
+      <c r="E6" s="254">
         <f>COUNTA(F12:F181)*2</f>
         <v>298</v>
       </c>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
       <c r="H6" s="99"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95" t="s">
@@ -8330,13 +8428,13 @@
       <c r="IK6" s="95"/>
     </row>
     <row r="7" spans="1:252" ht="13.5" customHeight="1">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
       <c r="H7" s="99"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
@@ -8577,13 +8675,13 @@
       <c r="IK7" s="95"/>
     </row>
     <row r="8" spans="1:252" ht="13.5" customHeight="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
       <c r="H8" s="99"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
@@ -9353,7 +9451,7 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="199"/>
+      <c r="I11" s="198"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -10124,12 +10222,12 @@
         <v>62</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D14" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="208"/>
+      <c r="E14" s="204"/>
       <c r="F14" s="117" t="s">
         <v>22</v>
       </c>
@@ -10383,15 +10481,15 @@
         <v>[User_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="209"/>
+        <v>190</v>
+      </c>
+      <c r="E15" s="205"/>
       <c r="F15" s="117" t="s">
         <v>22</v>
       </c>
@@ -10401,7 +10499,7 @@
       <c r="H15" s="119">
         <v>42381</v>
       </c>
-      <c r="I15" s="202"/>
+      <c r="I15" s="201"/>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
       <c r="L15" s="95"/>
@@ -10648,12 +10746,12 @@
         <v>63</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="210"/>
+        <v>190</v>
+      </c>
+      <c r="E16" s="206"/>
       <c r="F16" s="117" t="s">
         <v>22</v>
       </c>
@@ -10902,18 +11000,18 @@
       <c r="IK16" s="95"/>
     </row>
     <row r="17" spans="1:245" ht="55.5" customHeight="1">
-      <c r="A17" s="206" t="str">
+      <c r="A17" s="202" t="str">
         <f t="shared" ref="A17:A18" si="2">IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-7]</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C17" s="121" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E17" s="124"/>
       <c r="F17" s="117" t="s">
@@ -10922,7 +11020,7 @@
       <c r="G17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="241">
+      <c r="H17" s="237">
         <v>42381</v>
       </c>
       <c r="I17" s="124"/>
@@ -11169,13 +11267,13 @@
         <v>[User_login-8]</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D18" s="123" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E18" s="124"/>
       <c r="F18" s="117" t="s">
@@ -11184,7 +11282,7 @@
       <c r="G18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="241">
+      <c r="H18" s="237">
         <v>42381</v>
       </c>
       <c r="I18" s="124"/>
@@ -11425,542 +11523,542 @@
       <c r="IJ18" s="95"/>
       <c r="IK18" s="95"/>
     </row>
-    <row r="19" spans="1:245" s="217" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A19" s="213" t="str">
+    <row r="19" spans="1:245" s="213" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A19" s="209" t="str">
         <f t="shared" ref="A19" si="3">IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-9]</v>
       </c>
-      <c r="B19" s="214" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="214" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="214" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="215"/>
-      <c r="F19" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="241">
+      <c r="B19" s="210" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="210" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="211"/>
+      <c r="F19" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="237">
         <v>42381</v>
       </c>
-      <c r="I19" s="215"/>
-      <c r="J19" s="216"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="212"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
       <c r="M19" s="95"/>
       <c r="N19" s="95"/>
       <c r="O19" s="95"/>
       <c r="P19" s="95"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="216"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="216"/>
-      <c r="U19" s="216"/>
-      <c r="V19" s="216"/>
-      <c r="W19" s="216"/>
-      <c r="X19" s="216"/>
-      <c r="Y19" s="216"/>
-      <c r="Z19" s="216"/>
-      <c r="AA19" s="216"/>
-      <c r="AB19" s="216"/>
-      <c r="AC19" s="216"/>
-      <c r="AD19" s="216"/>
-      <c r="AE19" s="216"/>
-      <c r="AF19" s="216"/>
-      <c r="AG19" s="216"/>
-      <c r="AH19" s="216"/>
-      <c r="AI19" s="216"/>
-      <c r="AJ19" s="216"/>
-      <c r="AK19" s="216"/>
-      <c r="AL19" s="216"/>
-      <c r="AM19" s="216"/>
-      <c r="AN19" s="216"/>
-      <c r="AO19" s="216"/>
-      <c r="AP19" s="216"/>
-      <c r="AQ19" s="216"/>
-      <c r="AR19" s="216"/>
-      <c r="AS19" s="216"/>
-      <c r="AT19" s="216"/>
-      <c r="AU19" s="216"/>
-      <c r="AV19" s="216"/>
-      <c r="AW19" s="216"/>
-      <c r="AX19" s="216"/>
-      <c r="AY19" s="216"/>
-      <c r="AZ19" s="216"/>
-      <c r="BA19" s="216"/>
-      <c r="BB19" s="216"/>
-      <c r="BC19" s="216"/>
-      <c r="BD19" s="216"/>
-      <c r="BE19" s="216"/>
-      <c r="BF19" s="216"/>
-      <c r="BG19" s="216"/>
-      <c r="BH19" s="216"/>
-      <c r="BI19" s="216"/>
-      <c r="BJ19" s="216"/>
-      <c r="BK19" s="216"/>
-      <c r="BL19" s="216"/>
-      <c r="BM19" s="216"/>
-      <c r="BN19" s="216"/>
-      <c r="BO19" s="216"/>
-      <c r="BP19" s="216"/>
-      <c r="BQ19" s="216"/>
-      <c r="BR19" s="216"/>
-      <c r="BS19" s="216"/>
-      <c r="BT19" s="216"/>
-      <c r="BU19" s="216"/>
-      <c r="BV19" s="216"/>
-      <c r="BW19" s="216"/>
-      <c r="BX19" s="216"/>
-      <c r="BY19" s="216"/>
-      <c r="BZ19" s="216"/>
-      <c r="CA19" s="216"/>
-      <c r="CB19" s="216"/>
-      <c r="CC19" s="216"/>
-      <c r="CD19" s="216"/>
-      <c r="CE19" s="216"/>
-      <c r="CF19" s="216"/>
-      <c r="CG19" s="216"/>
-      <c r="CH19" s="216"/>
-      <c r="CI19" s="216"/>
-      <c r="CJ19" s="216"/>
-      <c r="CK19" s="216"/>
-      <c r="CL19" s="216"/>
-      <c r="CM19" s="216"/>
-      <c r="CN19" s="216"/>
-      <c r="CO19" s="216"/>
-      <c r="CP19" s="216"/>
-      <c r="CQ19" s="216"/>
-      <c r="CR19" s="216"/>
-      <c r="CS19" s="216"/>
-      <c r="CT19" s="216"/>
-      <c r="CU19" s="216"/>
-      <c r="CV19" s="216"/>
-      <c r="CW19" s="216"/>
-      <c r="CX19" s="216"/>
-      <c r="CY19" s="216"/>
-      <c r="CZ19" s="216"/>
-      <c r="DA19" s="216"/>
-      <c r="DB19" s="216"/>
-      <c r="DC19" s="216"/>
-      <c r="DD19" s="216"/>
-      <c r="DE19" s="216"/>
-      <c r="DF19" s="216"/>
-      <c r="DG19" s="216"/>
-      <c r="DH19" s="216"/>
-      <c r="DI19" s="216"/>
-      <c r="DJ19" s="216"/>
-      <c r="DK19" s="216"/>
-      <c r="DL19" s="216"/>
-      <c r="DM19" s="216"/>
-      <c r="DN19" s="216"/>
-      <c r="DO19" s="216"/>
-      <c r="DP19" s="216"/>
-      <c r="DQ19" s="216"/>
-      <c r="DR19" s="216"/>
-      <c r="DS19" s="216"/>
-      <c r="DT19" s="216"/>
-      <c r="DU19" s="216"/>
-      <c r="DV19" s="216"/>
-      <c r="DW19" s="216"/>
-      <c r="DX19" s="216"/>
-      <c r="DY19" s="216"/>
-      <c r="DZ19" s="216"/>
-      <c r="EA19" s="216"/>
-      <c r="EB19" s="216"/>
-      <c r="EC19" s="216"/>
-      <c r="ED19" s="216"/>
-      <c r="EE19" s="216"/>
-      <c r="EF19" s="216"/>
-      <c r="EG19" s="216"/>
-      <c r="EH19" s="216"/>
-      <c r="EI19" s="216"/>
-      <c r="EJ19" s="216"/>
-      <c r="EK19" s="216"/>
-      <c r="EL19" s="216"/>
-      <c r="EM19" s="216"/>
-      <c r="EN19" s="216"/>
-      <c r="EO19" s="216"/>
-      <c r="EP19" s="216"/>
-      <c r="EQ19" s="216"/>
-      <c r="ER19" s="216"/>
-      <c r="ES19" s="216"/>
-      <c r="ET19" s="216"/>
-      <c r="EU19" s="216"/>
-      <c r="EV19" s="216"/>
-      <c r="EW19" s="216"/>
-      <c r="EX19" s="216"/>
-      <c r="EY19" s="216"/>
-      <c r="EZ19" s="216"/>
-      <c r="FA19" s="216"/>
-      <c r="FB19" s="216"/>
-      <c r="FC19" s="216"/>
-      <c r="FD19" s="216"/>
-      <c r="FE19" s="216"/>
-      <c r="FF19" s="216"/>
-      <c r="FG19" s="216"/>
-      <c r="FH19" s="216"/>
-      <c r="FI19" s="216"/>
-      <c r="FJ19" s="216"/>
-      <c r="FK19" s="216"/>
-      <c r="FL19" s="216"/>
-      <c r="FM19" s="216"/>
-      <c r="FN19" s="216"/>
-      <c r="FO19" s="216"/>
-      <c r="FP19" s="216"/>
-      <c r="FQ19" s="216"/>
-      <c r="FR19" s="216"/>
-      <c r="FS19" s="216"/>
-      <c r="FT19" s="216"/>
-      <c r="FU19" s="216"/>
-      <c r="FV19" s="216"/>
-      <c r="FW19" s="216"/>
-      <c r="FX19" s="216"/>
-      <c r="FY19" s="216"/>
-      <c r="FZ19" s="216"/>
-      <c r="GA19" s="216"/>
-      <c r="GB19" s="216"/>
-      <c r="GC19" s="216"/>
-      <c r="GD19" s="216"/>
-      <c r="GE19" s="216"/>
-      <c r="GF19" s="216"/>
-      <c r="GG19" s="216"/>
-      <c r="GH19" s="216"/>
-      <c r="GI19" s="216"/>
-      <c r="GJ19" s="216"/>
-      <c r="GK19" s="216"/>
-      <c r="GL19" s="216"/>
-      <c r="GM19" s="216"/>
-      <c r="GN19" s="216"/>
-      <c r="GO19" s="216"/>
-      <c r="GP19" s="216"/>
-      <c r="GQ19" s="216"/>
-      <c r="GR19" s="216"/>
-      <c r="GS19" s="216"/>
-      <c r="GT19" s="216"/>
-      <c r="GU19" s="216"/>
-      <c r="GV19" s="216"/>
-      <c r="GW19" s="216"/>
-      <c r="GX19" s="216"/>
-      <c r="GY19" s="216"/>
-      <c r="GZ19" s="216"/>
-      <c r="HA19" s="216"/>
-      <c r="HB19" s="216"/>
-      <c r="HC19" s="216"/>
-      <c r="HD19" s="216"/>
-      <c r="HE19" s="216"/>
-      <c r="HF19" s="216"/>
-      <c r="HG19" s="216"/>
-      <c r="HH19" s="216"/>
-      <c r="HI19" s="216"/>
-      <c r="HJ19" s="216"/>
-      <c r="HK19" s="216"/>
-      <c r="HL19" s="216"/>
-      <c r="HM19" s="216"/>
-      <c r="HN19" s="216"/>
-      <c r="HO19" s="216"/>
-      <c r="HP19" s="216"/>
-      <c r="HQ19" s="216"/>
-      <c r="HR19" s="216"/>
-      <c r="HS19" s="216"/>
-      <c r="HT19" s="216"/>
-      <c r="HU19" s="216"/>
-      <c r="HV19" s="216"/>
-      <c r="HW19" s="216"/>
-      <c r="HX19" s="216"/>
-      <c r="HY19" s="216"/>
-      <c r="HZ19" s="216"/>
-      <c r="IA19" s="216"/>
-      <c r="IB19" s="216"/>
-      <c r="IC19" s="216"/>
-      <c r="ID19" s="216"/>
-      <c r="IE19" s="216"/>
-      <c r="IF19" s="216"/>
-      <c r="IG19" s="216"/>
-      <c r="IH19" s="216"/>
-      <c r="II19" s="216"/>
-      <c r="IJ19" s="216"/>
-      <c r="IK19" s="216"/>
-    </row>
-    <row r="20" spans="1:245" s="217" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A20" s="213" t="str">
+      <c r="Q19" s="212"/>
+      <c r="R19" s="212"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="212"/>
+      <c r="U19" s="212"/>
+      <c r="V19" s="212"/>
+      <c r="W19" s="212"/>
+      <c r="X19" s="212"/>
+      <c r="Y19" s="212"/>
+      <c r="Z19" s="212"/>
+      <c r="AA19" s="212"/>
+      <c r="AB19" s="212"/>
+      <c r="AC19" s="212"/>
+      <c r="AD19" s="212"/>
+      <c r="AE19" s="212"/>
+      <c r="AF19" s="212"/>
+      <c r="AG19" s="212"/>
+      <c r="AH19" s="212"/>
+      <c r="AI19" s="212"/>
+      <c r="AJ19" s="212"/>
+      <c r="AK19" s="212"/>
+      <c r="AL19" s="212"/>
+      <c r="AM19" s="212"/>
+      <c r="AN19" s="212"/>
+      <c r="AO19" s="212"/>
+      <c r="AP19" s="212"/>
+      <c r="AQ19" s="212"/>
+      <c r="AR19" s="212"/>
+      <c r="AS19" s="212"/>
+      <c r="AT19" s="212"/>
+      <c r="AU19" s="212"/>
+      <c r="AV19" s="212"/>
+      <c r="AW19" s="212"/>
+      <c r="AX19" s="212"/>
+      <c r="AY19" s="212"/>
+      <c r="AZ19" s="212"/>
+      <c r="BA19" s="212"/>
+      <c r="BB19" s="212"/>
+      <c r="BC19" s="212"/>
+      <c r="BD19" s="212"/>
+      <c r="BE19" s="212"/>
+      <c r="BF19" s="212"/>
+      <c r="BG19" s="212"/>
+      <c r="BH19" s="212"/>
+      <c r="BI19" s="212"/>
+      <c r="BJ19" s="212"/>
+      <c r="BK19" s="212"/>
+      <c r="BL19" s="212"/>
+      <c r="BM19" s="212"/>
+      <c r="BN19" s="212"/>
+      <c r="BO19" s="212"/>
+      <c r="BP19" s="212"/>
+      <c r="BQ19" s="212"/>
+      <c r="BR19" s="212"/>
+      <c r="BS19" s="212"/>
+      <c r="BT19" s="212"/>
+      <c r="BU19" s="212"/>
+      <c r="BV19" s="212"/>
+      <c r="BW19" s="212"/>
+      <c r="BX19" s="212"/>
+      <c r="BY19" s="212"/>
+      <c r="BZ19" s="212"/>
+      <c r="CA19" s="212"/>
+      <c r="CB19" s="212"/>
+      <c r="CC19" s="212"/>
+      <c r="CD19" s="212"/>
+      <c r="CE19" s="212"/>
+      <c r="CF19" s="212"/>
+      <c r="CG19" s="212"/>
+      <c r="CH19" s="212"/>
+      <c r="CI19" s="212"/>
+      <c r="CJ19" s="212"/>
+      <c r="CK19" s="212"/>
+      <c r="CL19" s="212"/>
+      <c r="CM19" s="212"/>
+      <c r="CN19" s="212"/>
+      <c r="CO19" s="212"/>
+      <c r="CP19" s="212"/>
+      <c r="CQ19" s="212"/>
+      <c r="CR19" s="212"/>
+      <c r="CS19" s="212"/>
+      <c r="CT19" s="212"/>
+      <c r="CU19" s="212"/>
+      <c r="CV19" s="212"/>
+      <c r="CW19" s="212"/>
+      <c r="CX19" s="212"/>
+      <c r="CY19" s="212"/>
+      <c r="CZ19" s="212"/>
+      <c r="DA19" s="212"/>
+      <c r="DB19" s="212"/>
+      <c r="DC19" s="212"/>
+      <c r="DD19" s="212"/>
+      <c r="DE19" s="212"/>
+      <c r="DF19" s="212"/>
+      <c r="DG19" s="212"/>
+      <c r="DH19" s="212"/>
+      <c r="DI19" s="212"/>
+      <c r="DJ19" s="212"/>
+      <c r="DK19" s="212"/>
+      <c r="DL19" s="212"/>
+      <c r="DM19" s="212"/>
+      <c r="DN19" s="212"/>
+      <c r="DO19" s="212"/>
+      <c r="DP19" s="212"/>
+      <c r="DQ19" s="212"/>
+      <c r="DR19" s="212"/>
+      <c r="DS19" s="212"/>
+      <c r="DT19" s="212"/>
+      <c r="DU19" s="212"/>
+      <c r="DV19" s="212"/>
+      <c r="DW19" s="212"/>
+      <c r="DX19" s="212"/>
+      <c r="DY19" s="212"/>
+      <c r="DZ19" s="212"/>
+      <c r="EA19" s="212"/>
+      <c r="EB19" s="212"/>
+      <c r="EC19" s="212"/>
+      <c r="ED19" s="212"/>
+      <c r="EE19" s="212"/>
+      <c r="EF19" s="212"/>
+      <c r="EG19" s="212"/>
+      <c r="EH19" s="212"/>
+      <c r="EI19" s="212"/>
+      <c r="EJ19" s="212"/>
+      <c r="EK19" s="212"/>
+      <c r="EL19" s="212"/>
+      <c r="EM19" s="212"/>
+      <c r="EN19" s="212"/>
+      <c r="EO19" s="212"/>
+      <c r="EP19" s="212"/>
+      <c r="EQ19" s="212"/>
+      <c r="ER19" s="212"/>
+      <c r="ES19" s="212"/>
+      <c r="ET19" s="212"/>
+      <c r="EU19" s="212"/>
+      <c r="EV19" s="212"/>
+      <c r="EW19" s="212"/>
+      <c r="EX19" s="212"/>
+      <c r="EY19" s="212"/>
+      <c r="EZ19" s="212"/>
+      <c r="FA19" s="212"/>
+      <c r="FB19" s="212"/>
+      <c r="FC19" s="212"/>
+      <c r="FD19" s="212"/>
+      <c r="FE19" s="212"/>
+      <c r="FF19" s="212"/>
+      <c r="FG19" s="212"/>
+      <c r="FH19" s="212"/>
+      <c r="FI19" s="212"/>
+      <c r="FJ19" s="212"/>
+      <c r="FK19" s="212"/>
+      <c r="FL19" s="212"/>
+      <c r="FM19" s="212"/>
+      <c r="FN19" s="212"/>
+      <c r="FO19" s="212"/>
+      <c r="FP19" s="212"/>
+      <c r="FQ19" s="212"/>
+      <c r="FR19" s="212"/>
+      <c r="FS19" s="212"/>
+      <c r="FT19" s="212"/>
+      <c r="FU19" s="212"/>
+      <c r="FV19" s="212"/>
+      <c r="FW19" s="212"/>
+      <c r="FX19" s="212"/>
+      <c r="FY19" s="212"/>
+      <c r="FZ19" s="212"/>
+      <c r="GA19" s="212"/>
+      <c r="GB19" s="212"/>
+      <c r="GC19" s="212"/>
+      <c r="GD19" s="212"/>
+      <c r="GE19" s="212"/>
+      <c r="GF19" s="212"/>
+      <c r="GG19" s="212"/>
+      <c r="GH19" s="212"/>
+      <c r="GI19" s="212"/>
+      <c r="GJ19" s="212"/>
+      <c r="GK19" s="212"/>
+      <c r="GL19" s="212"/>
+      <c r="GM19" s="212"/>
+      <c r="GN19" s="212"/>
+      <c r="GO19" s="212"/>
+      <c r="GP19" s="212"/>
+      <c r="GQ19" s="212"/>
+      <c r="GR19" s="212"/>
+      <c r="GS19" s="212"/>
+      <c r="GT19" s="212"/>
+      <c r="GU19" s="212"/>
+      <c r="GV19" s="212"/>
+      <c r="GW19" s="212"/>
+      <c r="GX19" s="212"/>
+      <c r="GY19" s="212"/>
+      <c r="GZ19" s="212"/>
+      <c r="HA19" s="212"/>
+      <c r="HB19" s="212"/>
+      <c r="HC19" s="212"/>
+      <c r="HD19" s="212"/>
+      <c r="HE19" s="212"/>
+      <c r="HF19" s="212"/>
+      <c r="HG19" s="212"/>
+      <c r="HH19" s="212"/>
+      <c r="HI19" s="212"/>
+      <c r="HJ19" s="212"/>
+      <c r="HK19" s="212"/>
+      <c r="HL19" s="212"/>
+      <c r="HM19" s="212"/>
+      <c r="HN19" s="212"/>
+      <c r="HO19" s="212"/>
+      <c r="HP19" s="212"/>
+      <c r="HQ19" s="212"/>
+      <c r="HR19" s="212"/>
+      <c r="HS19" s="212"/>
+      <c r="HT19" s="212"/>
+      <c r="HU19" s="212"/>
+      <c r="HV19" s="212"/>
+      <c r="HW19" s="212"/>
+      <c r="HX19" s="212"/>
+      <c r="HY19" s="212"/>
+      <c r="HZ19" s="212"/>
+      <c r="IA19" s="212"/>
+      <c r="IB19" s="212"/>
+      <c r="IC19" s="212"/>
+      <c r="ID19" s="212"/>
+      <c r="IE19" s="212"/>
+      <c r="IF19" s="212"/>
+      <c r="IG19" s="212"/>
+      <c r="IH19" s="212"/>
+      <c r="II19" s="212"/>
+      <c r="IJ19" s="212"/>
+      <c r="IK19" s="212"/>
+    </row>
+    <row r="20" spans="1:245" s="213" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A20" s="209" t="str">
         <f t="shared" ref="A20" si="4">IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-10]</v>
       </c>
-      <c r="B20" s="214" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="214" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="214" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="215"/>
-      <c r="F20" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="241">
+      <c r="B20" s="210" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="210" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="210" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="211"/>
+      <c r="F20" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="237">
         <v>42381</v>
       </c>
-      <c r="I20" s="215"/>
-      <c r="J20" s="216"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="212"/>
       <c r="K20" s="95"/>
       <c r="L20" s="95"/>
       <c r="M20" s="95"/>
       <c r="N20" s="95"/>
       <c r="O20" s="95"/>
       <c r="P20" s="95"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="216"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="216"/>
-      <c r="U20" s="216"/>
-      <c r="V20" s="216"/>
-      <c r="W20" s="216"/>
-      <c r="X20" s="216"/>
-      <c r="Y20" s="216"/>
-      <c r="Z20" s="216"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="216"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
-      <c r="AH20" s="216"/>
-      <c r="AI20" s="216"/>
-      <c r="AJ20" s="216"/>
-      <c r="AK20" s="216"/>
-      <c r="AL20" s="216"/>
-      <c r="AM20" s="216"/>
-      <c r="AN20" s="216"/>
-      <c r="AO20" s="216"/>
-      <c r="AP20" s="216"/>
-      <c r="AQ20" s="216"/>
-      <c r="AR20" s="216"/>
-      <c r="AS20" s="216"/>
-      <c r="AT20" s="216"/>
-      <c r="AU20" s="216"/>
-      <c r="AV20" s="216"/>
-      <c r="AW20" s="216"/>
-      <c r="AX20" s="216"/>
-      <c r="AY20" s="216"/>
-      <c r="AZ20" s="216"/>
-      <c r="BA20" s="216"/>
-      <c r="BB20" s="216"/>
-      <c r="BC20" s="216"/>
-      <c r="BD20" s="216"/>
-      <c r="BE20" s="216"/>
-      <c r="BF20" s="216"/>
-      <c r="BG20" s="216"/>
-      <c r="BH20" s="216"/>
-      <c r="BI20" s="216"/>
-      <c r="BJ20" s="216"/>
-      <c r="BK20" s="216"/>
-      <c r="BL20" s="216"/>
-      <c r="BM20" s="216"/>
-      <c r="BN20" s="216"/>
-      <c r="BO20" s="216"/>
-      <c r="BP20" s="216"/>
-      <c r="BQ20" s="216"/>
-      <c r="BR20" s="216"/>
-      <c r="BS20" s="216"/>
-      <c r="BT20" s="216"/>
-      <c r="BU20" s="216"/>
-      <c r="BV20" s="216"/>
-      <c r="BW20" s="216"/>
-      <c r="BX20" s="216"/>
-      <c r="BY20" s="216"/>
-      <c r="BZ20" s="216"/>
-      <c r="CA20" s="216"/>
-      <c r="CB20" s="216"/>
-      <c r="CC20" s="216"/>
-      <c r="CD20" s="216"/>
-      <c r="CE20" s="216"/>
-      <c r="CF20" s="216"/>
-      <c r="CG20" s="216"/>
-      <c r="CH20" s="216"/>
-      <c r="CI20" s="216"/>
-      <c r="CJ20" s="216"/>
-      <c r="CK20" s="216"/>
-      <c r="CL20" s="216"/>
-      <c r="CM20" s="216"/>
-      <c r="CN20" s="216"/>
-      <c r="CO20" s="216"/>
-      <c r="CP20" s="216"/>
-      <c r="CQ20" s="216"/>
-      <c r="CR20" s="216"/>
-      <c r="CS20" s="216"/>
-      <c r="CT20" s="216"/>
-      <c r="CU20" s="216"/>
-      <c r="CV20" s="216"/>
-      <c r="CW20" s="216"/>
-      <c r="CX20" s="216"/>
-      <c r="CY20" s="216"/>
-      <c r="CZ20" s="216"/>
-      <c r="DA20" s="216"/>
-      <c r="DB20" s="216"/>
-      <c r="DC20" s="216"/>
-      <c r="DD20" s="216"/>
-      <c r="DE20" s="216"/>
-      <c r="DF20" s="216"/>
-      <c r="DG20" s="216"/>
-      <c r="DH20" s="216"/>
-      <c r="DI20" s="216"/>
-      <c r="DJ20" s="216"/>
-      <c r="DK20" s="216"/>
-      <c r="DL20" s="216"/>
-      <c r="DM20" s="216"/>
-      <c r="DN20" s="216"/>
-      <c r="DO20" s="216"/>
-      <c r="DP20" s="216"/>
-      <c r="DQ20" s="216"/>
-      <c r="DR20" s="216"/>
-      <c r="DS20" s="216"/>
-      <c r="DT20" s="216"/>
-      <c r="DU20" s="216"/>
-      <c r="DV20" s="216"/>
-      <c r="DW20" s="216"/>
-      <c r="DX20" s="216"/>
-      <c r="DY20" s="216"/>
-      <c r="DZ20" s="216"/>
-      <c r="EA20" s="216"/>
-      <c r="EB20" s="216"/>
-      <c r="EC20" s="216"/>
-      <c r="ED20" s="216"/>
-      <c r="EE20" s="216"/>
-      <c r="EF20" s="216"/>
-      <c r="EG20" s="216"/>
-      <c r="EH20" s="216"/>
-      <c r="EI20" s="216"/>
-      <c r="EJ20" s="216"/>
-      <c r="EK20" s="216"/>
-      <c r="EL20" s="216"/>
-      <c r="EM20" s="216"/>
-      <c r="EN20" s="216"/>
-      <c r="EO20" s="216"/>
-      <c r="EP20" s="216"/>
-      <c r="EQ20" s="216"/>
-      <c r="ER20" s="216"/>
-      <c r="ES20" s="216"/>
-      <c r="ET20" s="216"/>
-      <c r="EU20" s="216"/>
-      <c r="EV20" s="216"/>
-      <c r="EW20" s="216"/>
-      <c r="EX20" s="216"/>
-      <c r="EY20" s="216"/>
-      <c r="EZ20" s="216"/>
-      <c r="FA20" s="216"/>
-      <c r="FB20" s="216"/>
-      <c r="FC20" s="216"/>
-      <c r="FD20" s="216"/>
-      <c r="FE20" s="216"/>
-      <c r="FF20" s="216"/>
-      <c r="FG20" s="216"/>
-      <c r="FH20" s="216"/>
-      <c r="FI20" s="216"/>
-      <c r="FJ20" s="216"/>
-      <c r="FK20" s="216"/>
-      <c r="FL20" s="216"/>
-      <c r="FM20" s="216"/>
-      <c r="FN20" s="216"/>
-      <c r="FO20" s="216"/>
-      <c r="FP20" s="216"/>
-      <c r="FQ20" s="216"/>
-      <c r="FR20" s="216"/>
-      <c r="FS20" s="216"/>
-      <c r="FT20" s="216"/>
-      <c r="FU20" s="216"/>
-      <c r="FV20" s="216"/>
-      <c r="FW20" s="216"/>
-      <c r="FX20" s="216"/>
-      <c r="FY20" s="216"/>
-      <c r="FZ20" s="216"/>
-      <c r="GA20" s="216"/>
-      <c r="GB20" s="216"/>
-      <c r="GC20" s="216"/>
-      <c r="GD20" s="216"/>
-      <c r="GE20" s="216"/>
-      <c r="GF20" s="216"/>
-      <c r="GG20" s="216"/>
-      <c r="GH20" s="216"/>
-      <c r="GI20" s="216"/>
-      <c r="GJ20" s="216"/>
-      <c r="GK20" s="216"/>
-      <c r="GL20" s="216"/>
-      <c r="GM20" s="216"/>
-      <c r="GN20" s="216"/>
-      <c r="GO20" s="216"/>
-      <c r="GP20" s="216"/>
-      <c r="GQ20" s="216"/>
-      <c r="GR20" s="216"/>
-      <c r="GS20" s="216"/>
-      <c r="GT20" s="216"/>
-      <c r="GU20" s="216"/>
-      <c r="GV20" s="216"/>
-      <c r="GW20" s="216"/>
-      <c r="GX20" s="216"/>
-      <c r="GY20" s="216"/>
-      <c r="GZ20" s="216"/>
-      <c r="HA20" s="216"/>
-      <c r="HB20" s="216"/>
-      <c r="HC20" s="216"/>
-      <c r="HD20" s="216"/>
-      <c r="HE20" s="216"/>
-      <c r="HF20" s="216"/>
-      <c r="HG20" s="216"/>
-      <c r="HH20" s="216"/>
-      <c r="HI20" s="216"/>
-      <c r="HJ20" s="216"/>
-      <c r="HK20" s="216"/>
-      <c r="HL20" s="216"/>
-      <c r="HM20" s="216"/>
-      <c r="HN20" s="216"/>
-      <c r="HO20" s="216"/>
-      <c r="HP20" s="216"/>
-      <c r="HQ20" s="216"/>
-      <c r="HR20" s="216"/>
-      <c r="HS20" s="216"/>
-      <c r="HT20" s="216"/>
-      <c r="HU20" s="216"/>
-      <c r="HV20" s="216"/>
-      <c r="HW20" s="216"/>
-      <c r="HX20" s="216"/>
-      <c r="HY20" s="216"/>
-      <c r="HZ20" s="216"/>
-      <c r="IA20" s="216"/>
-      <c r="IB20" s="216"/>
-      <c r="IC20" s="216"/>
-      <c r="ID20" s="216"/>
-      <c r="IE20" s="216"/>
-      <c r="IF20" s="216"/>
-      <c r="IG20" s="216"/>
-      <c r="IH20" s="216"/>
-      <c r="II20" s="216"/>
-      <c r="IJ20" s="216"/>
-      <c r="IK20" s="216"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="212"/>
+      <c r="S20" s="212"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="212"/>
+      <c r="V20" s="212"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="212"/>
+      <c r="Y20" s="212"/>
+      <c r="Z20" s="212"/>
+      <c r="AA20" s="212"/>
+      <c r="AB20" s="212"/>
+      <c r="AC20" s="212"/>
+      <c r="AD20" s="212"/>
+      <c r="AE20" s="212"/>
+      <c r="AF20" s="212"/>
+      <c r="AG20" s="212"/>
+      <c r="AH20" s="212"/>
+      <c r="AI20" s="212"/>
+      <c r="AJ20" s="212"/>
+      <c r="AK20" s="212"/>
+      <c r="AL20" s="212"/>
+      <c r="AM20" s="212"/>
+      <c r="AN20" s="212"/>
+      <c r="AO20" s="212"/>
+      <c r="AP20" s="212"/>
+      <c r="AQ20" s="212"/>
+      <c r="AR20" s="212"/>
+      <c r="AS20" s="212"/>
+      <c r="AT20" s="212"/>
+      <c r="AU20" s="212"/>
+      <c r="AV20" s="212"/>
+      <c r="AW20" s="212"/>
+      <c r="AX20" s="212"/>
+      <c r="AY20" s="212"/>
+      <c r="AZ20" s="212"/>
+      <c r="BA20" s="212"/>
+      <c r="BB20" s="212"/>
+      <c r="BC20" s="212"/>
+      <c r="BD20" s="212"/>
+      <c r="BE20" s="212"/>
+      <c r="BF20" s="212"/>
+      <c r="BG20" s="212"/>
+      <c r="BH20" s="212"/>
+      <c r="BI20" s="212"/>
+      <c r="BJ20" s="212"/>
+      <c r="BK20" s="212"/>
+      <c r="BL20" s="212"/>
+      <c r="BM20" s="212"/>
+      <c r="BN20" s="212"/>
+      <c r="BO20" s="212"/>
+      <c r="BP20" s="212"/>
+      <c r="BQ20" s="212"/>
+      <c r="BR20" s="212"/>
+      <c r="BS20" s="212"/>
+      <c r="BT20" s="212"/>
+      <c r="BU20" s="212"/>
+      <c r="BV20" s="212"/>
+      <c r="BW20" s="212"/>
+      <c r="BX20" s="212"/>
+      <c r="BY20" s="212"/>
+      <c r="BZ20" s="212"/>
+      <c r="CA20" s="212"/>
+      <c r="CB20" s="212"/>
+      <c r="CC20" s="212"/>
+      <c r="CD20" s="212"/>
+      <c r="CE20" s="212"/>
+      <c r="CF20" s="212"/>
+      <c r="CG20" s="212"/>
+      <c r="CH20" s="212"/>
+      <c r="CI20" s="212"/>
+      <c r="CJ20" s="212"/>
+      <c r="CK20" s="212"/>
+      <c r="CL20" s="212"/>
+      <c r="CM20" s="212"/>
+      <c r="CN20" s="212"/>
+      <c r="CO20" s="212"/>
+      <c r="CP20" s="212"/>
+      <c r="CQ20" s="212"/>
+      <c r="CR20" s="212"/>
+      <c r="CS20" s="212"/>
+      <c r="CT20" s="212"/>
+      <c r="CU20" s="212"/>
+      <c r="CV20" s="212"/>
+      <c r="CW20" s="212"/>
+      <c r="CX20" s="212"/>
+      <c r="CY20" s="212"/>
+      <c r="CZ20" s="212"/>
+      <c r="DA20" s="212"/>
+      <c r="DB20" s="212"/>
+      <c r="DC20" s="212"/>
+      <c r="DD20" s="212"/>
+      <c r="DE20" s="212"/>
+      <c r="DF20" s="212"/>
+      <c r="DG20" s="212"/>
+      <c r="DH20" s="212"/>
+      <c r="DI20" s="212"/>
+      <c r="DJ20" s="212"/>
+      <c r="DK20" s="212"/>
+      <c r="DL20" s="212"/>
+      <c r="DM20" s="212"/>
+      <c r="DN20" s="212"/>
+      <c r="DO20" s="212"/>
+      <c r="DP20" s="212"/>
+      <c r="DQ20" s="212"/>
+      <c r="DR20" s="212"/>
+      <c r="DS20" s="212"/>
+      <c r="DT20" s="212"/>
+      <c r="DU20" s="212"/>
+      <c r="DV20" s="212"/>
+      <c r="DW20" s="212"/>
+      <c r="DX20" s="212"/>
+      <c r="DY20" s="212"/>
+      <c r="DZ20" s="212"/>
+      <c r="EA20" s="212"/>
+      <c r="EB20" s="212"/>
+      <c r="EC20" s="212"/>
+      <c r="ED20" s="212"/>
+      <c r="EE20" s="212"/>
+      <c r="EF20" s="212"/>
+      <c r="EG20" s="212"/>
+      <c r="EH20" s="212"/>
+      <c r="EI20" s="212"/>
+      <c r="EJ20" s="212"/>
+      <c r="EK20" s="212"/>
+      <c r="EL20" s="212"/>
+      <c r="EM20" s="212"/>
+      <c r="EN20" s="212"/>
+      <c r="EO20" s="212"/>
+      <c r="EP20" s="212"/>
+      <c r="EQ20" s="212"/>
+      <c r="ER20" s="212"/>
+      <c r="ES20" s="212"/>
+      <c r="ET20" s="212"/>
+      <c r="EU20" s="212"/>
+      <c r="EV20" s="212"/>
+      <c r="EW20" s="212"/>
+      <c r="EX20" s="212"/>
+      <c r="EY20" s="212"/>
+      <c r="EZ20" s="212"/>
+      <c r="FA20" s="212"/>
+      <c r="FB20" s="212"/>
+      <c r="FC20" s="212"/>
+      <c r="FD20" s="212"/>
+      <c r="FE20" s="212"/>
+      <c r="FF20" s="212"/>
+      <c r="FG20" s="212"/>
+      <c r="FH20" s="212"/>
+      <c r="FI20" s="212"/>
+      <c r="FJ20" s="212"/>
+      <c r="FK20" s="212"/>
+      <c r="FL20" s="212"/>
+      <c r="FM20" s="212"/>
+      <c r="FN20" s="212"/>
+      <c r="FO20" s="212"/>
+      <c r="FP20" s="212"/>
+      <c r="FQ20" s="212"/>
+      <c r="FR20" s="212"/>
+      <c r="FS20" s="212"/>
+      <c r="FT20" s="212"/>
+      <c r="FU20" s="212"/>
+      <c r="FV20" s="212"/>
+      <c r="FW20" s="212"/>
+      <c r="FX20" s="212"/>
+      <c r="FY20" s="212"/>
+      <c r="FZ20" s="212"/>
+      <c r="GA20" s="212"/>
+      <c r="GB20" s="212"/>
+      <c r="GC20" s="212"/>
+      <c r="GD20" s="212"/>
+      <c r="GE20" s="212"/>
+      <c r="GF20" s="212"/>
+      <c r="GG20" s="212"/>
+      <c r="GH20" s="212"/>
+      <c r="GI20" s="212"/>
+      <c r="GJ20" s="212"/>
+      <c r="GK20" s="212"/>
+      <c r="GL20" s="212"/>
+      <c r="GM20" s="212"/>
+      <c r="GN20" s="212"/>
+      <c r="GO20" s="212"/>
+      <c r="GP20" s="212"/>
+      <c r="GQ20" s="212"/>
+      <c r="GR20" s="212"/>
+      <c r="GS20" s="212"/>
+      <c r="GT20" s="212"/>
+      <c r="GU20" s="212"/>
+      <c r="GV20" s="212"/>
+      <c r="GW20" s="212"/>
+      <c r="GX20" s="212"/>
+      <c r="GY20" s="212"/>
+      <c r="GZ20" s="212"/>
+      <c r="HA20" s="212"/>
+      <c r="HB20" s="212"/>
+      <c r="HC20" s="212"/>
+      <c r="HD20" s="212"/>
+      <c r="HE20" s="212"/>
+      <c r="HF20" s="212"/>
+      <c r="HG20" s="212"/>
+      <c r="HH20" s="212"/>
+      <c r="HI20" s="212"/>
+      <c r="HJ20" s="212"/>
+      <c r="HK20" s="212"/>
+      <c r="HL20" s="212"/>
+      <c r="HM20" s="212"/>
+      <c r="HN20" s="212"/>
+      <c r="HO20" s="212"/>
+      <c r="HP20" s="212"/>
+      <c r="HQ20" s="212"/>
+      <c r="HR20" s="212"/>
+      <c r="HS20" s="212"/>
+      <c r="HT20" s="212"/>
+      <c r="HU20" s="212"/>
+      <c r="HV20" s="212"/>
+      <c r="HW20" s="212"/>
+      <c r="HX20" s="212"/>
+      <c r="HY20" s="212"/>
+      <c r="HZ20" s="212"/>
+      <c r="IA20" s="212"/>
+      <c r="IB20" s="212"/>
+      <c r="IC20" s="212"/>
+      <c r="ID20" s="212"/>
+      <c r="IE20" s="212"/>
+      <c r="IF20" s="212"/>
+      <c r="IG20" s="212"/>
+      <c r="IH20" s="212"/>
+      <c r="II20" s="212"/>
+      <c r="IJ20" s="212"/>
+      <c r="IK20" s="212"/>
     </row>
     <row r="21" spans="1:245" ht="14.25" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="58" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="208"/>
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
       <c r="L21" s="95"/>
@@ -12203,13 +12301,13 @@
         <v>114</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E22" s="146"/>
       <c r="F22" s="117" t="s">
@@ -12464,13 +12562,13 @@
         <v>115</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="E23" s="146"/>
       <c r="F23" s="117" t="s">
@@ -12725,13 +12823,13 @@
         <v>116</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="E24" s="146"/>
       <c r="F24" s="117" t="s">
@@ -12986,13 +13084,13 @@
         <v>117</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E25" s="146"/>
       <c r="F25" s="117" t="s">
@@ -13244,16 +13342,16 @@
     </row>
     <row r="26" spans="1:245" ht="54" customHeight="1">
       <c r="A26" s="91" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E26" s="146"/>
       <c r="F26" s="117" t="s">
@@ -13505,16 +13603,16 @@
     </row>
     <row r="27" spans="1:245" ht="54" customHeight="1">
       <c r="A27" s="91" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B27" s="91" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>645</v>
+      </c>
+      <c r="D27" s="91" t="s">
         <v>646</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>672</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>673</v>
       </c>
       <c r="E27" s="146"/>
       <c r="F27" s="117" t="s">
@@ -13766,16 +13864,16 @@
     </row>
     <row r="28" spans="1:245" ht="54" customHeight="1">
       <c r="A28" s="91" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="E28" s="146"/>
       <c r="F28" s="117" t="s">
@@ -14027,16 +14125,16 @@
     </row>
     <row r="29" spans="1:245" ht="54" customHeight="1">
       <c r="A29" s="91" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="E29" s="146"/>
       <c r="F29" s="117" t="s">
@@ -14288,16 +14386,16 @@
     </row>
     <row r="30" spans="1:245" ht="54" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E30" s="146"/>
       <c r="F30" s="117" t="s">
@@ -14549,16 +14647,16 @@
     </row>
     <row r="31" spans="1:245" ht="60.75" customHeight="1">
       <c r="A31" s="91" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E31" s="146"/>
       <c r="F31" s="117" t="s">
@@ -14810,16 +14908,16 @@
     </row>
     <row r="32" spans="1:245" ht="60.75" customHeight="1">
       <c r="A32" s="91" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E32" s="146"/>
       <c r="F32" s="117" t="s">
@@ -15071,16 +15169,16 @@
     </row>
     <row r="33" spans="1:245" ht="60.75" customHeight="1">
       <c r="A33" s="91" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="E33" s="146"/>
       <c r="F33" s="117" t="s">
@@ -15332,16 +15430,16 @@
     </row>
     <row r="34" spans="1:245" ht="60.75" customHeight="1">
       <c r="A34" s="91" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E34" s="146"/>
       <c r="F34" s="117" t="s">
@@ -15593,16 +15691,16 @@
     </row>
     <row r="35" spans="1:245" ht="60.75" customHeight="1">
       <c r="A35" s="91" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E35" s="146"/>
       <c r="F35" s="117" t="s">
@@ -15854,16 +15952,16 @@
     </row>
     <row r="36" spans="1:245" ht="60.75" customHeight="1">
       <c r="A36" s="91" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="E36" s="146"/>
       <c r="F36" s="117" t="s">
@@ -16115,16 +16213,16 @@
     </row>
     <row r="37" spans="1:245" ht="60.75" customHeight="1">
       <c r="A37" s="91" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E37" s="146"/>
       <c r="F37" s="117" t="s">
@@ -16376,16 +16474,16 @@
     </row>
     <row r="38" spans="1:245" ht="60.75" customHeight="1">
       <c r="A38" s="91" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="117" t="s">
@@ -16637,16 +16735,16 @@
     </row>
     <row r="39" spans="1:245" ht="60.75" customHeight="1">
       <c r="A39" s="91" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E39" s="146"/>
       <c r="F39" s="117" t="s">
@@ -16898,19 +16996,19 @@
     </row>
     <row r="40" spans="1:245" ht="55.5" customHeight="1">
       <c r="A40" s="91" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E40" s="146"/>
-      <c r="F40" s="234" t="s">
+      <c r="F40" s="230" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="117" t="s">
@@ -17159,16 +17257,16 @@
     </row>
     <row r="41" spans="1:245" ht="56.25" customHeight="1">
       <c r="A41" s="91" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="117" t="s">
@@ -17420,16 +17518,16 @@
     </row>
     <row r="42" spans="1:245" ht="59.25" customHeight="1">
       <c r="A42" s="91" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="117" t="s">
@@ -17681,16 +17779,16 @@
     </row>
     <row r="43" spans="1:245" ht="59.25" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="E43" s="146"/>
       <c r="F43" s="117" t="s">
@@ -17942,16 +18040,16 @@
     </row>
     <row r="44" spans="1:245" ht="59.25" customHeight="1">
       <c r="A44" s="91" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="117" t="s">
@@ -18203,16 +18301,16 @@
     </row>
     <row r="45" spans="1:245" ht="59.25" customHeight="1">
       <c r="A45" s="91" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="117" t="s">
@@ -18464,16 +18562,16 @@
     </row>
     <row r="46" spans="1:245" ht="59.25" customHeight="1">
       <c r="A46" s="91" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="117" t="s">
@@ -18725,16 +18823,16 @@
     </row>
     <row r="47" spans="1:245" ht="59.25" customHeight="1">
       <c r="A47" s="91" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="117" t="s">
@@ -18986,16 +19084,16 @@
     </row>
     <row r="48" spans="1:245" ht="59.25" customHeight="1">
       <c r="A48" s="91" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="C48" s="91" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E48" s="146"/>
       <c r="F48" s="117" t="s">
@@ -19247,16 +19345,16 @@
     </row>
     <row r="49" spans="1:256" ht="59.25" customHeight="1">
       <c r="A49" s="91" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E49" s="146"/>
       <c r="F49" s="117" t="s">
@@ -19508,16 +19606,16 @@
     </row>
     <row r="50" spans="1:256" ht="59.25" customHeight="1">
       <c r="A50" s="91" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E50" s="146"/>
       <c r="F50" s="117" t="s">
@@ -19769,7 +19867,7 @@
     </row>
     <row r="51" spans="1:256" ht="51.75" customHeight="1">
       <c r="A51" s="91" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B51" s="91" t="s">
         <v>64</v>
@@ -20031,15 +20129,15 @@
     <row r="52" spans="1:256" ht="15" customHeight="1">
       <c r="A52" s="59"/>
       <c r="B52" s="58" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="239"/>
-      <c r="I52" s="236"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="232"/>
       <c r="J52" s="95"/>
       <c r="K52" s="95"/>
       <c r="L52" s="95"/>
@@ -20289,18 +20387,18 @@
       <c r="IV52" s="95"/>
     </row>
     <row r="53" spans="1:256" ht="30" customHeight="1">
-      <c r="A53" s="207" t="str">
+      <c r="A53" s="203" t="str">
         <f t="shared" ref="A53:A63" si="5">IF(OR(B53&lt;&gt;"",D53&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-43]</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C53" s="91" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D53" s="123" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E53" s="147"/>
       <c r="F53" s="117" t="s">
@@ -20551,20 +20649,20 @@
       <c r="IK53" s="95"/>
     </row>
     <row r="54" spans="1:256" ht="37.5" customHeight="1">
-      <c r="A54" s="207" t="str">
+      <c r="A54" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-44]</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D54" s="123" t="s">
-        <v>387</v>
-      </c>
-      <c r="E54" s="238"/>
+        <v>362</v>
+      </c>
+      <c r="E54" s="234"/>
       <c r="F54" s="117" t="s">
         <v>22</v>
       </c>
@@ -20813,20 +20911,20 @@
       <c r="IK54" s="95"/>
     </row>
     <row r="55" spans="1:256" ht="43.5" customHeight="1">
-      <c r="A55" s="207" t="str">
+      <c r="A55" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-45]</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C55" s="91" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D55" s="123" t="s">
-        <v>401</v>
-      </c>
-      <c r="E55" s="238"/>
+        <v>376</v>
+      </c>
+      <c r="E55" s="234"/>
       <c r="F55" s="117" t="s">
         <v>22</v>
       </c>
@@ -21075,20 +21173,20 @@
       <c r="IK55" s="95"/>
     </row>
     <row r="56" spans="1:256" ht="42.75" customHeight="1">
-      <c r="A56" s="207" t="str">
+      <c r="A56" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-46]</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C56" s="91" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D56" s="123" t="s">
-        <v>403</v>
-      </c>
-      <c r="E56" s="238"/>
+        <v>378</v>
+      </c>
+      <c r="E56" s="234"/>
       <c r="F56" s="117" t="s">
         <v>22</v>
       </c>
@@ -21337,20 +21435,20 @@
       <c r="IK56" s="95"/>
     </row>
     <row r="57" spans="1:256" ht="44.25" customHeight="1">
-      <c r="A57" s="207" t="str">
+      <c r="A57" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-47]</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C57" s="91" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D57" s="123" t="s">
-        <v>402</v>
-      </c>
-      <c r="E57" s="238"/>
+        <v>377</v>
+      </c>
+      <c r="E57" s="234"/>
       <c r="F57" s="117" t="s">
         <v>22</v>
       </c>
@@ -21599,20 +21697,20 @@
       <c r="IK57" s="95"/>
     </row>
     <row r="58" spans="1:256" ht="53.25" customHeight="1">
-      <c r="A58" s="207" t="str">
+      <c r="A58" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-48]</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C58" s="91" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D58" s="123" t="s">
-        <v>406</v>
-      </c>
-      <c r="E58" s="238"/>
+        <v>381</v>
+      </c>
+      <c r="E58" s="234"/>
       <c r="F58" s="117" t="s">
         <v>22</v>
       </c>
@@ -21861,20 +21959,20 @@
       <c r="IK58" s="95"/>
     </row>
     <row r="59" spans="1:256" ht="44.25" customHeight="1">
-      <c r="A59" s="207" t="str">
+      <c r="A59" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-49]</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D59" s="123" t="s">
-        <v>405</v>
-      </c>
-      <c r="E59" s="238"/>
+        <v>380</v>
+      </c>
+      <c r="E59" s="234"/>
       <c r="F59" s="117" t="s">
         <v>22</v>
       </c>
@@ -22123,20 +22221,20 @@
       <c r="IK59" s="95"/>
     </row>
     <row r="60" spans="1:256" ht="49.5" customHeight="1">
-      <c r="A60" s="207" t="str">
+      <c r="A60" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-50]</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D60" s="123" t="s">
-        <v>404</v>
-      </c>
-      <c r="E60" s="238"/>
+        <v>379</v>
+      </c>
+      <c r="E60" s="234"/>
       <c r="F60" s="117" t="s">
         <v>22</v>
       </c>
@@ -22385,18 +22483,18 @@
       <c r="IK60" s="95"/>
     </row>
     <row r="61" spans="1:256" ht="42" customHeight="1">
-      <c r="A61" s="207" t="str">
+      <c r="A61" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-51]</v>
       </c>
       <c r="B61" s="91" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C61" s="91" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D61" s="123" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="E61" s="147"/>
       <c r="F61" s="117" t="s">
@@ -22647,7 +22745,7 @@
       <c r="IK61" s="95"/>
     </row>
     <row r="62" spans="1:256" ht="15" customHeight="1">
-      <c r="A62" s="207"/>
+      <c r="A62" s="203"/>
       <c r="B62" s="58" t="s">
         <v>71</v>
       </c>
@@ -22657,8 +22755,8 @@
       <c r="F62" s="59"/>
       <c r="G62" s="58"/>
       <c r="H62" s="112"/>
-      <c r="I62" s="237"/>
-      <c r="J62" s="171"/>
+      <c r="I62" s="233"/>
+      <c r="J62" s="170"/>
       <c r="K62" s="95"/>
       <c r="L62" s="95"/>
       <c r="M62" s="95"/>
@@ -22903,31 +23001,31 @@
       <c r="IR62" s="95"/>
     </row>
     <row r="63" spans="1:256" ht="59.25" customHeight="1">
-      <c r="A63" s="207" t="str">
+      <c r="A63" s="203" t="str">
         <f t="shared" si="5"/>
         <v>[User_login-53]</v>
       </c>
       <c r="B63" s="123" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C63" s="123" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D63" s="123" t="s">
         <v>118</v>
       </c>
       <c r="E63" s="123"/>
-      <c r="F63" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="175" t="s">
+      <c r="F63" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="174" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="112">
         <v>42381</v>
       </c>
       <c r="I63" s="148"/>
-      <c r="J63" s="218"/>
+      <c r="J63" s="214"/>
       <c r="K63" s="95"/>
       <c r="L63" s="95"/>
       <c r="M63" s="95"/>
@@ -23177,10 +23275,10 @@
         <v>[User_login-54]</v>
       </c>
       <c r="B64" s="91" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D64" s="91" t="s">
         <v>119</v>
@@ -23196,7 +23294,7 @@
         <v>42381</v>
       </c>
       <c r="I64" s="107"/>
-      <c r="J64" s="219"/>
+      <c r="J64" s="215"/>
       <c r="K64" s="95"/>
       <c r="L64" s="95"/>
       <c r="M64" s="95"/>
@@ -23446,10 +23544,10 @@
         <v>[User_login-55]</v>
       </c>
       <c r="B65" s="91" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D65" s="91" t="s">
         <v>120</v>
@@ -23465,7 +23563,7 @@
         <v>42381</v>
       </c>
       <c r="I65" s="107"/>
-      <c r="J65" s="219"/>
+      <c r="J65" s="215"/>
       <c r="K65" s="95"/>
       <c r="L65" s="95"/>
       <c r="M65" s="95"/>
@@ -23967,7 +24065,7 @@
         <v>72</v>
       </c>
       <c r="C67" s="91" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D67" s="104" t="s">
         <v>73</v>
@@ -24226,13 +24324,13 @@
         <v>[User_login-58]</v>
       </c>
       <c r="B68" s="91" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="E68" s="91"/>
       <c r="F68" s="117" t="s">
@@ -24245,7 +24343,7 @@
         <v>42381</v>
       </c>
       <c r="I68" s="107"/>
-      <c r="J68" s="218"/>
+      <c r="J68" s="214"/>
       <c r="K68" s="95"/>
       <c r="L68" s="95"/>
       <c r="M68" s="95"/>
@@ -24495,13 +24593,13 @@
         <v>[User_login-59]</v>
       </c>
       <c r="B69" s="91" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D69" s="136" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E69" s="91"/>
       <c r="F69" s="117" t="s">
@@ -24514,7 +24612,7 @@
         <v>42381</v>
       </c>
       <c r="I69" s="107"/>
-      <c r="J69" s="219"/>
+      <c r="J69" s="215"/>
       <c r="K69" s="95"/>
       <c r="L69" s="95"/>
       <c r="M69" s="95"/>
@@ -24764,13 +24862,13 @@
         <v>[User_login-60]</v>
       </c>
       <c r="B70" s="91" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D70" s="136" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E70" s="91"/>
       <c r="F70" s="117" t="s">
@@ -24783,7 +24881,7 @@
         <v>42381</v>
       </c>
       <c r="I70" s="107"/>
-      <c r="J70" s="219"/>
+      <c r="J70" s="215"/>
       <c r="K70" s="95"/>
       <c r="L70" s="95"/>
       <c r="M70" s="95"/>
@@ -25033,13 +25131,13 @@
         <v>[User_login-61]</v>
       </c>
       <c r="B71" s="91" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D71" s="136" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E71" s="91"/>
       <c r="F71" s="117" t="s">
@@ -25052,7 +25150,7 @@
         <v>42381</v>
       </c>
       <c r="I71" s="107"/>
-      <c r="J71" s="219"/>
+      <c r="J71" s="215"/>
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
       <c r="M71" s="95"/>
@@ -25302,13 +25400,13 @@
         <v>[User_login-62]</v>
       </c>
       <c r="B72" s="91" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D72" s="136" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E72" s="91"/>
       <c r="F72" s="117" t="s">
@@ -25321,7 +25419,7 @@
         <v>42381</v>
       </c>
       <c r="I72" s="107"/>
-      <c r="J72" s="219"/>
+      <c r="J72" s="215"/>
       <c r="K72" s="95"/>
       <c r="L72" s="95"/>
       <c r="M72" s="95"/>
@@ -25571,13 +25669,13 @@
         <v>[User_login-63]</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D73" s="136" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E73" s="91"/>
       <c r="F73" s="117" t="s">
@@ -25590,7 +25688,7 @@
         <v>42381</v>
       </c>
       <c r="I73" s="107"/>
-      <c r="J73" s="219"/>
+      <c r="J73" s="215"/>
       <c r="K73" s="95"/>
       <c r="L73" s="95"/>
       <c r="M73" s="95"/>
@@ -25840,13 +25938,13 @@
         <v>[User_login-64]</v>
       </c>
       <c r="B74" s="91" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D74" s="136" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E74" s="91"/>
       <c r="F74" s="117" t="s">
@@ -25859,7 +25957,7 @@
         <v>42381</v>
       </c>
       <c r="I74" s="107"/>
-      <c r="J74" s="219"/>
+      <c r="J74" s="215"/>
       <c r="K74" s="95"/>
       <c r="L74" s="95"/>
       <c r="M74" s="95"/>
@@ -26109,13 +26207,13 @@
         <v>[User_login-65]</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E75" s="91"/>
       <c r="F75" s="117" t="s">
@@ -26128,7 +26226,7 @@
         <v>42381</v>
       </c>
       <c r="I75" s="107"/>
-      <c r="J75" s="219"/>
+      <c r="J75" s="215"/>
       <c r="K75" s="95"/>
       <c r="L75" s="95"/>
       <c r="M75" s="95"/>
@@ -26378,13 +26476,13 @@
         <v>[User_login-66]</v>
       </c>
       <c r="B76" s="91" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="D76" s="136" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E76" s="91"/>
       <c r="F76" s="117" t="s">
@@ -26397,7 +26495,7 @@
         <v>42381</v>
       </c>
       <c r="I76" s="107"/>
-      <c r="J76" s="219"/>
+      <c r="J76" s="215"/>
       <c r="K76" s="95"/>
       <c r="L76" s="95"/>
       <c r="M76" s="95"/>
@@ -26893,10 +26991,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="91" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="117" t="s">
@@ -27143,7 +27241,7 @@
     <row r="79" spans="1:252" ht="14.25" customHeight="1">
       <c r="A79" s="58"/>
       <c r="B79" s="58" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -27395,30 +27493,30 @@
       <c r="IP79" s="95"/>
     </row>
     <row r="80" spans="1:252" ht="51" customHeight="1">
-      <c r="A80" s="229" t="str">
+      <c r="A80" s="225" t="str">
         <f t="shared" ref="A80:A81" si="9">IF(OR(B80&lt;&gt;"",D80&lt;E79&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-70]</v>
       </c>
-      <c r="B80" s="232" t="s">
+      <c r="B80" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="232" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="232" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="233"/>
-      <c r="F80" s="230" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="232" t="s">
+      <c r="C80" s="228" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="228" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="229"/>
+      <c r="F80" s="226" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="228" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="112">
         <v>42381</v>
       </c>
-      <c r="I80" s="170"/>
+      <c r="I80" s="169"/>
       <c r="J80" s="95"/>
       <c r="Q80" s="95"/>
       <c r="R80" s="95"/>
@@ -27651,30 +27749,30 @@
       <c r="IK80" s="95"/>
     </row>
     <row r="81" spans="1:245" ht="97.5" customHeight="1">
-      <c r="A81" s="223" t="str">
+      <c r="A81" s="219" t="str">
         <f t="shared" si="9"/>
         <v>[User_login-71]</v>
       </c>
-      <c r="B81" s="224" t="s">
-        <v>274</v>
-      </c>
-      <c r="C81" s="225" t="s">
-        <v>276</v>
-      </c>
-      <c r="D81" s="226" t="s">
-        <v>277</v>
-      </c>
-      <c r="E81" s="226"/>
-      <c r="F81" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="224" t="s">
+      <c r="B81" s="220" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="221" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="222" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="222"/>
+      <c r="F81" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="220" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="112">
         <v>42381</v>
       </c>
-      <c r="I81" s="222"/>
+      <c r="I81" s="218"/>
       <c r="J81" s="95"/>
       <c r="Q81" s="95"/>
       <c r="R81" s="95"/>
@@ -27907,30 +28005,30 @@
       <c r="IK81" s="95"/>
     </row>
     <row r="82" spans="1:245" ht="60" customHeight="1">
-      <c r="A82" s="223" t="str">
+      <c r="A82" s="219" t="str">
         <f t="shared" ref="A82" si="10">IF(OR(B82&lt;&gt;"",D82&lt;E81&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-72]</v>
       </c>
-      <c r="B82" s="224" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" s="225" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="226" t="s">
-        <v>278</v>
-      </c>
-      <c r="E82" s="226"/>
-      <c r="F82" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="224" t="s">
+      <c r="B82" s="220" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="221" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="222" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="222"/>
+      <c r="F82" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="220" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="112">
         <v>42381</v>
       </c>
-      <c r="I82" s="231"/>
+      <c r="I82" s="227"/>
       <c r="J82" s="95"/>
       <c r="Q82" s="95"/>
       <c r="R82" s="95"/>
@@ -28163,30 +28261,30 @@
       <c r="IK82" s="95"/>
     </row>
     <row r="83" spans="1:245" ht="37.5" customHeight="1">
-      <c r="A83" s="223" t="str">
+      <c r="A83" s="219" t="str">
         <f t="shared" ref="A83" si="11">IF(OR(B83&lt;&gt;"",D83&lt;E82&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-73]</v>
       </c>
-      <c r="B83" s="224" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="225" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="226" t="s">
-        <v>279</v>
-      </c>
-      <c r="E83" s="226"/>
-      <c r="F83" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="224" t="s">
+      <c r="B83" s="220" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="221" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="222" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" s="222"/>
+      <c r="F83" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="220" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="112">
         <v>42381</v>
       </c>
-      <c r="I83" s="231"/>
+      <c r="I83" s="227"/>
       <c r="J83" s="95"/>
       <c r="Q83" s="95"/>
       <c r="R83" s="95"/>
@@ -28419,30 +28517,30 @@
       <c r="IK83" s="95"/>
     </row>
     <row r="84" spans="1:245" ht="45.75" customHeight="1">
-      <c r="A84" s="223" t="str">
+      <c r="A84" s="219" t="str">
         <f>IF(OR(B84&lt;&gt;"",D84&lt;E83&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-74]</v>
       </c>
-      <c r="B84" s="224" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" s="225" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" s="226" t="s">
-        <v>279</v>
-      </c>
-      <c r="E84" s="226"/>
-      <c r="F84" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="224" t="s">
+      <c r="B84" s="220" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="221" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="222" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="222"/>
+      <c r="F84" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="220" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="112">
         <v>42381</v>
       </c>
-      <c r="I84" s="231"/>
+      <c r="I84" s="227"/>
       <c r="J84" s="95"/>
       <c r="Q84" s="95"/>
       <c r="R84" s="95"/>
@@ -28675,30 +28773,30 @@
       <c r="IK84" s="95"/>
     </row>
     <row r="85" spans="1:245" ht="44.25" customHeight="1">
-      <c r="A85" s="223" t="str">
+      <c r="A85" s="219" t="str">
         <f>IF(OR(B85&lt;&gt;"",D85&lt;E84&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-75]</v>
       </c>
-      <c r="B85" s="224" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" s="225" t="s">
-        <v>248</v>
-      </c>
-      <c r="D85" s="226" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" s="226"/>
-      <c r="F85" s="224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="224" t="s">
+      <c r="B85" s="220" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="221" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="222" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="222"/>
+      <c r="F85" s="220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="220" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="112">
         <v>42381</v>
       </c>
-      <c r="I85" s="227"/>
+      <c r="I85" s="223"/>
       <c r="J85" s="95"/>
       <c r="Q85" s="95"/>
       <c r="R85" s="95"/>
@@ -28931,17 +29029,17 @@
       <c r="IK85" s="95"/>
     </row>
     <row r="86" spans="1:245" ht="14.25" customHeight="1">
-      <c r="A86" s="220"/>
-      <c r="B86" s="220" t="s">
-        <v>451</v>
-      </c>
-      <c r="C86" s="221"/>
-      <c r="D86" s="221"/>
-      <c r="E86" s="169"/>
-      <c r="F86" s="169"/>
-      <c r="G86" s="169"/>
+      <c r="A86" s="216"/>
+      <c r="B86" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" s="217"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168"/>
+      <c r="G86" s="168"/>
       <c r="H86" s="112"/>
-      <c r="I86" s="171"/>
+      <c r="I86" s="170"/>
       <c r="J86" s="105"/>
     </row>
     <row r="87" spans="1:245" ht="118.5" customHeight="1">
@@ -28950,25 +29048,25 @@
         <v>[User_login-77]</v>
       </c>
       <c r="B87" s="91" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C87" s="106" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D87" s="104" t="s">
         <v>121</v>
       </c>
       <c r="E87" s="104"/>
-      <c r="F87" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="235" t="s">
+      <c r="F87" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="231" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="112">
         <v>42381</v>
       </c>
-      <c r="I87" s="173"/>
+      <c r="I87" s="172"/>
       <c r="J87" s="105"/>
     </row>
     <row r="88" spans="1:245" ht="118.5" customHeight="1">
@@ -28977,15 +29075,15 @@
         <v>[User_login-78]</v>
       </c>
       <c r="B88" s="91" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C88" s="106" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="D88" s="104" t="s">
-        <v>681</v>
-      </c>
-      <c r="E88" s="167"/>
+        <v>654</v>
+      </c>
+      <c r="E88" s="166"/>
       <c r="F88" s="117" t="s">
         <v>22</v>
       </c>
@@ -28995,7 +29093,7 @@
       <c r="H88" s="112">
         <v>42381</v>
       </c>
-      <c r="I88" s="173"/>
+      <c r="I88" s="172"/>
       <c r="J88" s="105"/>
     </row>
     <row r="89" spans="1:245" ht="151.5" customHeight="1">
@@ -29004,15 +29102,15 @@
         <v>[User_login-79]</v>
       </c>
       <c r="B89" s="91" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="D89" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="E89" s="167"/>
+        <v>356</v>
+      </c>
+      <c r="E89" s="166"/>
       <c r="F89" s="117" t="s">
         <v>22</v>
       </c>
@@ -29022,7 +29120,7 @@
       <c r="H89" s="112">
         <v>42381</v>
       </c>
-      <c r="I89" s="173"/>
+      <c r="I89" s="172"/>
       <c r="J89" s="105"/>
     </row>
     <row r="90" spans="1:245" ht="147" customHeight="1">
@@ -29031,15 +29129,15 @@
         <v>[User_login-80]</v>
       </c>
       <c r="B90" s="91" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D90" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="E90" s="167"/>
+        <v>358</v>
+      </c>
+      <c r="E90" s="166"/>
       <c r="F90" s="117" t="s">
         <v>22</v>
       </c>
@@ -29049,7 +29147,7 @@
       <c r="H90" s="112">
         <v>42381</v>
       </c>
-      <c r="I90" s="173"/>
+      <c r="I90" s="172"/>
       <c r="J90" s="105"/>
     </row>
     <row r="91" spans="1:245" ht="147" customHeight="1">
@@ -29058,15 +29156,15 @@
         <v>[User_login-81]</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C91" s="106" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="D91" s="104" t="s">
-        <v>453</v>
-      </c>
-      <c r="E91" s="167"/>
+        <v>428</v>
+      </c>
+      <c r="E91" s="166"/>
       <c r="F91" s="117" t="s">
         <v>22</v>
       </c>
@@ -29076,7 +29174,7 @@
       <c r="H91" s="112">
         <v>42381</v>
       </c>
-      <c r="I91" s="173"/>
+      <c r="I91" s="172"/>
       <c r="J91" s="105"/>
     </row>
     <row r="92" spans="1:245" ht="148.5" customHeight="1">
@@ -29085,15 +29183,15 @@
         <v>[User_login-82]</v>
       </c>
       <c r="B92" s="91" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C92" s="106" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="E92" s="167"/>
+        <v>358</v>
+      </c>
+      <c r="E92" s="166"/>
       <c r="F92" s="117" t="s">
         <v>22</v>
       </c>
@@ -29103,7 +29201,7 @@
       <c r="H92" s="112">
         <v>42381</v>
       </c>
-      <c r="I92" s="173"/>
+      <c r="I92" s="172"/>
       <c r="J92" s="105"/>
     </row>
     <row r="93" spans="1:245" ht="143.25" customHeight="1">
@@ -29112,15 +29210,15 @@
         <v>[User_login-83]</v>
       </c>
       <c r="B93" s="91" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="C93" s="106" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>456</v>
-      </c>
-      <c r="E93" s="167"/>
+        <v>431</v>
+      </c>
+      <c r="E93" s="166"/>
       <c r="F93" s="117" t="s">
         <v>22</v>
       </c>
@@ -29130,7 +29228,7 @@
       <c r="H93" s="112">
         <v>42381</v>
       </c>
-      <c r="I93" s="173"/>
+      <c r="I93" s="172"/>
       <c r="J93" s="105"/>
     </row>
     <row r="94" spans="1:245" ht="139.5" customHeight="1">
@@ -29139,15 +29237,15 @@
         <v>[User_login-84]</v>
       </c>
       <c r="B94" s="91" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="C94" s="106" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>458</v>
-      </c>
-      <c r="E94" s="167"/>
+        <v>433</v>
+      </c>
+      <c r="E94" s="166"/>
       <c r="F94" s="117" t="s">
         <v>22</v>
       </c>
@@ -29157,7 +29255,7 @@
       <c r="H94" s="112">
         <v>42381</v>
       </c>
-      <c r="I94" s="173"/>
+      <c r="I94" s="172"/>
       <c r="J94" s="105"/>
     </row>
     <row r="95" spans="1:245" ht="14.25" customHeight="1">
@@ -29165,16 +29263,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-85]</v>
       </c>
-      <c r="B95" s="220" t="s">
-        <v>413</v>
-      </c>
-      <c r="C95" s="228"/>
-      <c r="D95" s="228"/>
-      <c r="E95" s="228"/>
-      <c r="F95" s="228"/>
-      <c r="G95" s="228"/>
-      <c r="H95" s="228"/>
-      <c r="I95" s="228"/>
+      <c r="B95" s="216" t="s">
+        <v>388</v>
+      </c>
+      <c r="C95" s="224"/>
+      <c r="D95" s="224"/>
+      <c r="E95" s="224"/>
+      <c r="F95" s="224"/>
+      <c r="G95" s="224"/>
+      <c r="H95" s="224"/>
+      <c r="I95" s="224"/>
       <c r="J95" s="105"/>
     </row>
     <row r="96" spans="1:245" ht="88.5" customHeight="1">
@@ -29182,16 +29280,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-86]</v>
       </c>
-      <c r="B96" s="174" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="166" t="s">
-        <v>290</v>
+      <c r="B96" s="173" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="165" t="s">
+        <v>265</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>285</v>
-      </c>
-      <c r="E96" s="163"/>
+        <v>260</v>
+      </c>
+      <c r="E96" s="162"/>
       <c r="F96" s="117" t="s">
         <v>22</v>
       </c>
@@ -29201,7 +29299,7 @@
       <c r="H96" s="112">
         <v>42412</v>
       </c>
-      <c r="I96" s="164"/>
+      <c r="I96" s="163"/>
       <c r="J96" s="105"/>
     </row>
     <row r="97" spans="1:10" ht="78" customHeight="1">
@@ -29209,16 +29307,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-87]</v>
       </c>
-      <c r="B97" s="174" t="s">
-        <v>287</v>
-      </c>
-      <c r="C97" s="166" t="s">
-        <v>289</v>
+      <c r="B97" s="173" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="165" t="s">
+        <v>264</v>
       </c>
       <c r="D97" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="163"/>
+        <v>267</v>
+      </c>
+      <c r="E97" s="162"/>
       <c r="F97" s="117" t="s">
         <v>22</v>
       </c>
@@ -29228,7 +29326,7 @@
       <c r="H97" s="112">
         <v>42412</v>
       </c>
-      <c r="I97" s="164"/>
+      <c r="I97" s="163"/>
       <c r="J97" s="105"/>
     </row>
     <row r="98" spans="1:10" ht="78" customHeight="1">
@@ -29236,16 +29334,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-88]</v>
       </c>
-      <c r="B98" s="174" t="s">
-        <v>288</v>
-      </c>
-      <c r="C98" s="166" t="s">
-        <v>291</v>
+      <c r="B98" s="173" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="165" t="s">
+        <v>266</v>
       </c>
       <c r="D98" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="E98" s="163"/>
+        <v>267</v>
+      </c>
+      <c r="E98" s="162"/>
       <c r="F98" s="117" t="s">
         <v>22</v>
       </c>
@@ -29255,7 +29353,7 @@
       <c r="H98" s="112">
         <v>42412</v>
       </c>
-      <c r="I98" s="164"/>
+      <c r="I98" s="163"/>
       <c r="J98" s="105"/>
     </row>
     <row r="99" spans="1:10" ht="78" customHeight="1">
@@ -29263,16 +29361,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-89]</v>
       </c>
-      <c r="B99" s="174" t="s">
-        <v>407</v>
-      </c>
-      <c r="C99" s="166" t="s">
-        <v>290</v>
+      <c r="B99" s="173" t="s">
+        <v>382</v>
+      </c>
+      <c r="C99" s="165" t="s">
+        <v>265</v>
       </c>
       <c r="D99" s="117" t="s">
-        <v>408</v>
-      </c>
-      <c r="E99" s="163"/>
+        <v>383</v>
+      </c>
+      <c r="E99" s="162"/>
       <c r="F99" s="117" t="s">
         <v>22</v>
       </c>
@@ -29282,7 +29380,7 @@
       <c r="H99" s="112">
         <v>42412</v>
       </c>
-      <c r="I99" s="164"/>
+      <c r="I99" s="163"/>
       <c r="J99" s="105"/>
     </row>
     <row r="100" spans="1:10" ht="98.25" customHeight="1">
@@ -29290,16 +29388,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-90]</v>
       </c>
-      <c r="B100" s="174" t="s">
-        <v>409</v>
-      </c>
-      <c r="C100" s="166" t="s">
-        <v>410</v>
+      <c r="B100" s="173" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100" s="165" t="s">
+        <v>385</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>688</v>
-      </c>
-      <c r="E100" s="163"/>
+        <v>661</v>
+      </c>
+      <c r="E100" s="162"/>
       <c r="F100" s="117" t="s">
         <v>22</v>
       </c>
@@ -29309,7 +29407,7 @@
       <c r="H100" s="112">
         <v>42412</v>
       </c>
-      <c r="I100" s="164"/>
+      <c r="I100" s="163"/>
       <c r="J100" s="105"/>
     </row>
     <row r="101" spans="1:10" ht="96" customHeight="1">
@@ -29317,16 +29415,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-91]</v>
       </c>
-      <c r="B101" s="174" t="s">
-        <v>411</v>
-      </c>
-      <c r="C101" s="166" t="s">
-        <v>412</v>
+      <c r="B101" s="173" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" s="165" t="s">
+        <v>387</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>689</v>
-      </c>
-      <c r="E101" s="163"/>
+        <v>662</v>
+      </c>
+      <c r="E101" s="162"/>
       <c r="F101" s="117" t="s">
         <v>22</v>
       </c>
@@ -29336,7 +29434,7 @@
       <c r="H101" s="112">
         <v>42412</v>
       </c>
-      <c r="I101" s="164"/>
+      <c r="I101" s="163"/>
       <c r="J101" s="105"/>
     </row>
     <row r="102" spans="1:10" ht="76.5">
@@ -29344,16 +29442,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-92]</v>
       </c>
-      <c r="B102" s="174" t="s">
-        <v>415</v>
-      </c>
-      <c r="C102" s="166" t="s">
-        <v>414</v>
+      <c r="B102" s="173" t="s">
+        <v>390</v>
+      </c>
+      <c r="C102" s="165" t="s">
+        <v>389</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="E102" s="163"/>
+        <v>392</v>
+      </c>
+      <c r="E102" s="162"/>
       <c r="F102" s="117" t="s">
         <v>22</v>
       </c>
@@ -29363,7 +29461,7 @@
       <c r="H102" s="112">
         <v>42412</v>
       </c>
-      <c r="I102" s="164"/>
+      <c r="I102" s="163"/>
       <c r="J102" s="105"/>
     </row>
     <row r="103" spans="1:10" ht="96" customHeight="1">
@@ -29371,16 +29469,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-93]</v>
       </c>
-      <c r="B103" s="174" t="s">
-        <v>416</v>
-      </c>
-      <c r="C103" s="166" t="s">
-        <v>414</v>
+      <c r="B103" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="C103" s="165" t="s">
+        <v>389</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>418</v>
-      </c>
-      <c r="E103" s="163"/>
+        <v>393</v>
+      </c>
+      <c r="E103" s="162"/>
       <c r="F103" s="117" t="s">
         <v>22</v>
       </c>
@@ -29390,7 +29488,7 @@
       <c r="H103" s="112">
         <v>42412</v>
       </c>
-      <c r="I103" s="164"/>
+      <c r="I103" s="163"/>
       <c r="J103" s="105"/>
     </row>
     <row r="104" spans="1:10" ht="96" customHeight="1">
@@ -29398,16 +29496,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-94]</v>
       </c>
-      <c r="B104" s="174" t="s">
-        <v>419</v>
-      </c>
-      <c r="C104" s="166" t="s">
-        <v>420</v>
+      <c r="B104" s="173" t="s">
+        <v>394</v>
+      </c>
+      <c r="C104" s="165" t="s">
+        <v>395</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>421</v>
-      </c>
-      <c r="E104" s="163"/>
+        <v>396</v>
+      </c>
+      <c r="E104" s="162"/>
       <c r="F104" s="117" t="s">
         <v>22</v>
       </c>
@@ -29417,7 +29515,7 @@
       <c r="H104" s="112">
         <v>42412</v>
       </c>
-      <c r="I104" s="164"/>
+      <c r="I104" s="163"/>
       <c r="J104" s="105"/>
     </row>
     <row r="105" spans="1:10" ht="96" customHeight="1">
@@ -29425,16 +29523,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-95]</v>
       </c>
-      <c r="B105" s="174" t="s">
-        <v>422</v>
-      </c>
-      <c r="C105" s="166" t="s">
-        <v>423</v>
+      <c r="B105" s="173" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" s="165" t="s">
+        <v>398</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>424</v>
-      </c>
-      <c r="E105" s="163"/>
+        <v>399</v>
+      </c>
+      <c r="E105" s="162"/>
       <c r="F105" s="117" t="s">
         <v>22</v>
       </c>
@@ -29444,7 +29542,7 @@
       <c r="H105" s="112">
         <v>42412</v>
       </c>
-      <c r="I105" s="164"/>
+      <c r="I105" s="163"/>
       <c r="J105" s="105"/>
     </row>
     <row r="106" spans="1:10" ht="84" customHeight="1">
@@ -29452,16 +29550,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-96]</v>
       </c>
-      <c r="B106" s="174" t="s">
-        <v>425</v>
-      </c>
-      <c r="C106" s="166" t="s">
-        <v>426</v>
+      <c r="B106" s="173" t="s">
+        <v>400</v>
+      </c>
+      <c r="C106" s="165" t="s">
+        <v>401</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>427</v>
-      </c>
-      <c r="E106" s="163"/>
+        <v>402</v>
+      </c>
+      <c r="E106" s="162"/>
       <c r="F106" s="117" t="s">
         <v>22</v>
       </c>
@@ -29471,7 +29569,7 @@
       <c r="H106" s="112">
         <v>42412</v>
       </c>
-      <c r="I106" s="164"/>
+      <c r="I106" s="163"/>
       <c r="J106" s="105"/>
     </row>
     <row r="107" spans="1:10" ht="84" customHeight="1">
@@ -29479,16 +29577,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-97]</v>
       </c>
-      <c r="B107" s="174" t="s">
-        <v>428</v>
-      </c>
-      <c r="C107" s="166" t="s">
-        <v>429</v>
+      <c r="B107" s="173" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" s="165" t="s">
+        <v>404</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>424</v>
-      </c>
-      <c r="E107" s="163"/>
+        <v>399</v>
+      </c>
+      <c r="E107" s="162"/>
       <c r="F107" s="117" t="s">
         <v>22</v>
       </c>
@@ -29498,7 +29596,7 @@
       <c r="H107" s="112">
         <v>42412</v>
       </c>
-      <c r="I107" s="164"/>
+      <c r="I107" s="163"/>
       <c r="J107" s="105"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1">
@@ -29506,16 +29604,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-98]</v>
       </c>
-      <c r="B108" s="220" t="s">
-        <v>430</v>
-      </c>
-      <c r="C108" s="228"/>
-      <c r="D108" s="228"/>
-      <c r="E108" s="228"/>
-      <c r="F108" s="228"/>
-      <c r="G108" s="228"/>
+      <c r="B108" s="216" t="s">
+        <v>405</v>
+      </c>
+      <c r="C108" s="224"/>
+      <c r="D108" s="224"/>
+      <c r="E108" s="224"/>
+      <c r="F108" s="224"/>
+      <c r="G108" s="224"/>
       <c r="H108" s="112"/>
-      <c r="I108" s="228"/>
+      <c r="I108" s="224"/>
       <c r="J108" s="105"/>
     </row>
     <row r="109" spans="1:10" ht="88.5" customHeight="1">
@@ -29523,16 +29621,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-99]</v>
       </c>
-      <c r="B109" s="174" t="s">
-        <v>306</v>
-      </c>
-      <c r="C109" s="166" t="s">
-        <v>293</v>
+      <c r="B109" s="173" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" s="165" t="s">
+        <v>268</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>296</v>
-      </c>
-      <c r="E109" s="163"/>
+        <v>271</v>
+      </c>
+      <c r="E109" s="162"/>
       <c r="F109" s="117" t="s">
         <v>22</v>
       </c>
@@ -29542,7 +29640,7 @@
       <c r="H109" s="112">
         <v>42412</v>
       </c>
-      <c r="I109" s="164"/>
+      <c r="I109" s="163"/>
       <c r="J109" s="105"/>
     </row>
     <row r="110" spans="1:10" ht="68.25" customHeight="1">
@@ -29550,16 +29648,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-100]</v>
       </c>
-      <c r="B110" s="174" t="s">
-        <v>307</v>
-      </c>
-      <c r="C110" s="166" t="s">
-        <v>295</v>
+      <c r="B110" s="173" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" s="165" t="s">
+        <v>270</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>297</v>
-      </c>
-      <c r="E110" s="163"/>
+        <v>272</v>
+      </c>
+      <c r="E110" s="162"/>
       <c r="F110" s="117" t="s">
         <v>22</v>
       </c>
@@ -29569,7 +29667,7 @@
       <c r="H110" s="112">
         <v>42412</v>
       </c>
-      <c r="I110" s="164"/>
+      <c r="I110" s="163"/>
       <c r="J110" s="105"/>
     </row>
     <row r="111" spans="1:10" ht="68.25" customHeight="1">
@@ -29577,16 +29675,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-101]</v>
       </c>
-      <c r="B111" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="C111" s="166" t="s">
-        <v>294</v>
+      <c r="B111" s="173" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="165" t="s">
+        <v>269</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>318</v>
-      </c>
-      <c r="E111" s="163"/>
+        <v>293</v>
+      </c>
+      <c r="E111" s="162"/>
       <c r="F111" s="117" t="s">
         <v>22</v>
       </c>
@@ -29596,7 +29694,7 @@
       <c r="H111" s="112">
         <v>42412</v>
       </c>
-      <c r="I111" s="164"/>
+      <c r="I111" s="163"/>
       <c r="J111" s="105"/>
     </row>
     <row r="112" spans="1:10" ht="68.25" customHeight="1">
@@ -29604,16 +29702,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-102]</v>
       </c>
-      <c r="B112" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="C112" s="166" t="s">
-        <v>691</v>
+      <c r="B112" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="C112" s="165" t="s">
+        <v>664</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>692</v>
-      </c>
-      <c r="E112" s="163"/>
+        <v>665</v>
+      </c>
+      <c r="E112" s="162"/>
       <c r="F112" s="117" t="s">
         <v>22</v>
       </c>
@@ -29623,7 +29721,7 @@
       <c r="H112" s="112">
         <v>42412</v>
       </c>
-      <c r="I112" s="164"/>
+      <c r="I112" s="163"/>
       <c r="J112" s="105"/>
     </row>
     <row r="113" spans="1:10" ht="68.25" customHeight="1">
@@ -29631,16 +29729,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-103]</v>
       </c>
-      <c r="B113" s="174" t="s">
-        <v>432</v>
-      </c>
-      <c r="C113" s="166" t="s">
-        <v>691</v>
+      <c r="B113" s="173" t="s">
+        <v>407</v>
+      </c>
+      <c r="C113" s="165" t="s">
+        <v>664</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>693</v>
-      </c>
-      <c r="E113" s="163"/>
+        <v>666</v>
+      </c>
+      <c r="E113" s="162"/>
       <c r="F113" s="117" t="s">
         <v>22</v>
       </c>
@@ -29650,7 +29748,7 @@
       <c r="H113" s="112">
         <v>42412</v>
       </c>
-      <c r="I113" s="164"/>
+      <c r="I113" s="163"/>
       <c r="J113" s="105"/>
     </row>
     <row r="114" spans="1:10" ht="83.25" customHeight="1">
@@ -29658,16 +29756,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-104]</v>
       </c>
-      <c r="B114" s="174" t="s">
-        <v>433</v>
-      </c>
-      <c r="C114" s="166" t="s">
-        <v>694</v>
+      <c r="B114" s="173" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" s="165" t="s">
+        <v>667</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>437</v>
-      </c>
-      <c r="E114" s="163"/>
+        <v>412</v>
+      </c>
+      <c r="E114" s="162"/>
       <c r="F114" s="117" t="s">
         <v>22</v>
       </c>
@@ -29677,7 +29775,7 @@
       <c r="H114" s="112">
         <v>42412</v>
       </c>
-      <c r="I114" s="164"/>
+      <c r="I114" s="163"/>
       <c r="J114" s="105"/>
     </row>
     <row r="115" spans="1:10" ht="89.25">
@@ -29685,16 +29783,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-105]</v>
       </c>
-      <c r="B115" s="174" t="s">
-        <v>434</v>
-      </c>
-      <c r="C115" s="166" t="s">
-        <v>439</v>
+      <c r="B115" s="173" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="165" t="s">
+        <v>414</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>442</v>
-      </c>
-      <c r="E115" s="163"/>
+        <v>417</v>
+      </c>
+      <c r="E115" s="162"/>
       <c r="F115" s="117" t="s">
         <v>22</v>
       </c>
@@ -29704,7 +29802,7 @@
       <c r="H115" s="112">
         <v>42412</v>
       </c>
-      <c r="I115" s="164"/>
+      <c r="I115" s="163"/>
       <c r="J115" s="105"/>
     </row>
     <row r="116" spans="1:10" ht="102">
@@ -29712,16 +29810,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-106]</v>
       </c>
-      <c r="B116" s="174" t="s">
-        <v>435</v>
-      </c>
-      <c r="C116" s="166" t="s">
-        <v>440</v>
+      <c r="B116" s="173" t="s">
+        <v>410</v>
+      </c>
+      <c r="C116" s="165" t="s">
+        <v>415</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>443</v>
-      </c>
-      <c r="E116" s="163"/>
+        <v>418</v>
+      </c>
+      <c r="E116" s="162"/>
       <c r="F116" s="117" t="s">
         <v>22</v>
       </c>
@@ -29731,7 +29829,7 @@
       <c r="H116" s="112">
         <v>42412</v>
       </c>
-      <c r="I116" s="164"/>
+      <c r="I116" s="163"/>
       <c r="J116" s="105"/>
     </row>
     <row r="117" spans="1:10" ht="89.25">
@@ -29739,16 +29837,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-107]</v>
       </c>
-      <c r="B117" s="174" t="s">
-        <v>436</v>
-      </c>
-      <c r="C117" s="166" t="s">
-        <v>441</v>
+      <c r="B117" s="173" t="s">
+        <v>411</v>
+      </c>
+      <c r="C117" s="165" t="s">
+        <v>416</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>438</v>
-      </c>
-      <c r="E117" s="163"/>
+        <v>413</v>
+      </c>
+      <c r="E117" s="162"/>
       <c r="F117" s="117" t="s">
         <v>22</v>
       </c>
@@ -29758,7 +29856,7 @@
       <c r="H117" s="112">
         <v>42412</v>
       </c>
-      <c r="I117" s="164"/>
+      <c r="I117" s="163"/>
       <c r="J117" s="105"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" customHeight="1">
@@ -29766,16 +29864,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-108]</v>
       </c>
-      <c r="B118" s="220" t="s">
-        <v>446</v>
-      </c>
-      <c r="C118" s="228"/>
-      <c r="D118" s="228"/>
-      <c r="E118" s="228"/>
-      <c r="F118" s="228"/>
-      <c r="G118" s="228"/>
+      <c r="B118" s="216" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" s="224"/>
+      <c r="D118" s="224"/>
+      <c r="E118" s="224"/>
+      <c r="F118" s="224"/>
+      <c r="G118" s="224"/>
       <c r="H118" s="112"/>
-      <c r="I118" s="228"/>
+      <c r="I118" s="224"/>
       <c r="J118" s="105"/>
     </row>
     <row r="119" spans="1:10" ht="88.5" customHeight="1">
@@ -29783,16 +29881,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-109]</v>
       </c>
-      <c r="B119" s="174" t="s">
-        <v>309</v>
-      </c>
-      <c r="C119" s="166" t="s">
-        <v>312</v>
+      <c r="B119" s="173" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" s="165" t="s">
+        <v>287</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="E119" s="163"/>
+        <v>292</v>
+      </c>
+      <c r="E119" s="162"/>
       <c r="F119" s="117" t="s">
         <v>22</v>
       </c>
@@ -29802,7 +29900,7 @@
       <c r="H119" s="112">
         <v>42412</v>
       </c>
-      <c r="I119" s="164"/>
+      <c r="I119" s="163"/>
       <c r="J119" s="105"/>
     </row>
     <row r="120" spans="1:10" ht="68.25" customHeight="1">
@@ -29810,16 +29908,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-110]</v>
       </c>
-      <c r="B120" s="174" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="166" t="s">
-        <v>313</v>
+      <c r="B120" s="173" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" s="165" t="s">
+        <v>288</v>
       </c>
       <c r="D120" s="117" t="s">
-        <v>316</v>
-      </c>
-      <c r="E120" s="163"/>
+        <v>291</v>
+      </c>
+      <c r="E120" s="162"/>
       <c r="F120" s="117" t="s">
         <v>22</v>
       </c>
@@ -29829,7 +29927,7 @@
       <c r="H120" s="112">
         <v>42412</v>
       </c>
-      <c r="I120" s="164"/>
+      <c r="I120" s="163"/>
       <c r="J120" s="105"/>
     </row>
     <row r="121" spans="1:10" ht="68.25" customHeight="1">
@@ -29837,16 +29935,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-111]</v>
       </c>
-      <c r="B121" s="174" t="s">
-        <v>311</v>
-      </c>
-      <c r="C121" s="166" t="s">
-        <v>314</v>
+      <c r="B121" s="173" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="165" t="s">
+        <v>289</v>
       </c>
       <c r="D121" s="117" t="s">
-        <v>315</v>
-      </c>
-      <c r="E121" s="163"/>
+        <v>290</v>
+      </c>
+      <c r="E121" s="162"/>
       <c r="F121" s="117" t="s">
         <v>22</v>
       </c>
@@ -29856,7 +29954,7 @@
       <c r="H121" s="112">
         <v>42412</v>
       </c>
-      <c r="I121" s="164"/>
+      <c r="I121" s="163"/>
       <c r="J121" s="105"/>
     </row>
     <row r="122" spans="1:10" ht="68.25" customHeight="1">
@@ -29864,16 +29962,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-112]</v>
       </c>
-      <c r="B122" s="174" t="s">
-        <v>444</v>
-      </c>
-      <c r="C122" s="166" t="s">
-        <v>696</v>
+      <c r="B122" s="173" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="165" t="s">
+        <v>669</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>695</v>
-      </c>
-      <c r="E122" s="163"/>
+        <v>668</v>
+      </c>
+      <c r="E122" s="162"/>
       <c r="F122" s="117" t="s">
         <v>22</v>
       </c>
@@ -29883,7 +29981,7 @@
       <c r="H122" s="112">
         <v>42412</v>
       </c>
-      <c r="I122" s="164"/>
+      <c r="I122" s="163"/>
       <c r="J122" s="105"/>
     </row>
     <row r="123" spans="1:10" ht="68.25" customHeight="1">
@@ -29891,16 +29989,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-113]</v>
       </c>
-      <c r="B123" s="174" t="s">
-        <v>699</v>
-      </c>
-      <c r="C123" s="166" t="s">
-        <v>445</v>
+      <c r="B123" s="173" t="s">
+        <v>672</v>
+      </c>
+      <c r="C123" s="165" t="s">
+        <v>420</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>700</v>
-      </c>
-      <c r="E123" s="163"/>
+        <v>673</v>
+      </c>
+      <c r="E123" s="162"/>
       <c r="F123" s="117" t="s">
         <v>22</v>
       </c>
@@ -29910,7 +30008,7 @@
       <c r="H123" s="112">
         <v>42412</v>
       </c>
-      <c r="I123" s="164"/>
+      <c r="I123" s="163"/>
       <c r="J123" s="105"/>
     </row>
     <row r="124" spans="1:10" ht="68.25" customHeight="1">
@@ -29918,16 +30016,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-114]</v>
       </c>
-      <c r="B124" s="174" t="s">
-        <v>697</v>
-      </c>
-      <c r="C124" s="166" t="s">
-        <v>701</v>
+      <c r="B124" s="173" t="s">
+        <v>670</v>
+      </c>
+      <c r="C124" s="165" t="s">
+        <v>674</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>703</v>
-      </c>
-      <c r="E124" s="163"/>
+        <v>676</v>
+      </c>
+      <c r="E124" s="162"/>
       <c r="F124" s="117" t="s">
         <v>22</v>
       </c>
@@ -29937,7 +30035,7 @@
       <c r="H124" s="112">
         <v>42412</v>
       </c>
-      <c r="I124" s="164"/>
+      <c r="I124" s="163"/>
       <c r="J124" s="105"/>
     </row>
     <row r="125" spans="1:10" ht="68.25" customHeight="1">
@@ -29945,16 +30043,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-115]</v>
       </c>
-      <c r="B125" s="174" t="s">
-        <v>698</v>
-      </c>
-      <c r="C125" s="166" t="s">
-        <v>702</v>
+      <c r="B125" s="173" t="s">
+        <v>671</v>
+      </c>
+      <c r="C125" s="165" t="s">
+        <v>675</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>704</v>
-      </c>
-      <c r="E125" s="163"/>
+        <v>677</v>
+      </c>
+      <c r="E125" s="162"/>
       <c r="F125" s="117" t="s">
         <v>22</v>
       </c>
@@ -29964,7 +30062,7 @@
       <c r="H125" s="112">
         <v>42412</v>
       </c>
-      <c r="I125" s="164"/>
+      <c r="I125" s="163"/>
       <c r="J125" s="105"/>
     </row>
     <row r="126" spans="1:10" ht="102">
@@ -29972,16 +30070,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-116]</v>
       </c>
-      <c r="B126" s="174" t="s">
-        <v>447</v>
-      </c>
-      <c r="C126" s="166" t="s">
-        <v>705</v>
+      <c r="B126" s="173" t="s">
+        <v>422</v>
+      </c>
+      <c r="C126" s="165" t="s">
+        <v>678</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>706</v>
-      </c>
-      <c r="E126" s="163"/>
+        <v>679</v>
+      </c>
+      <c r="E126" s="162"/>
       <c r="F126" s="117" t="s">
         <v>22</v>
       </c>
@@ -29991,7 +30089,7 @@
       <c r="H126" s="112">
         <v>42412</v>
       </c>
-      <c r="I126" s="164"/>
+      <c r="I126" s="163"/>
       <c r="J126" s="105"/>
     </row>
     <row r="127" spans="1:10" ht="102">
@@ -29999,16 +30097,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-117]</v>
       </c>
-      <c r="B127" s="174" t="s">
-        <v>448</v>
-      </c>
-      <c r="C127" s="166" t="s">
-        <v>707</v>
+      <c r="B127" s="173" t="s">
+        <v>423</v>
+      </c>
+      <c r="C127" s="165" t="s">
+        <v>680</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>710</v>
-      </c>
-      <c r="E127" s="163"/>
+        <v>683</v>
+      </c>
+      <c r="E127" s="162"/>
       <c r="F127" s="117" t="s">
         <v>22</v>
       </c>
@@ -30018,7 +30116,7 @@
       <c r="H127" s="112">
         <v>42412</v>
       </c>
-      <c r="I127" s="164"/>
+      <c r="I127" s="163"/>
       <c r="J127" s="105"/>
     </row>
     <row r="128" spans="1:10" ht="114.75">
@@ -30026,16 +30124,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-118]</v>
       </c>
-      <c r="B128" s="174" t="s">
-        <v>449</v>
-      </c>
-      <c r="C128" s="166" t="s">
-        <v>708</v>
+      <c r="B128" s="173" t="s">
+        <v>424</v>
+      </c>
+      <c r="C128" s="165" t="s">
+        <v>681</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>711</v>
-      </c>
-      <c r="E128" s="163"/>
+        <v>684</v>
+      </c>
+      <c r="E128" s="162"/>
       <c r="F128" s="117" t="s">
         <v>22</v>
       </c>
@@ -30045,7 +30143,7 @@
       <c r="H128" s="112">
         <v>42412</v>
       </c>
-      <c r="I128" s="164"/>
+      <c r="I128" s="163"/>
       <c r="J128" s="105"/>
     </row>
     <row r="129" spans="1:10" ht="68.25" customHeight="1">
@@ -30053,16 +30151,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-119]</v>
       </c>
-      <c r="B129" s="174" t="s">
-        <v>450</v>
-      </c>
-      <c r="C129" s="166" t="s">
-        <v>709</v>
+      <c r="B129" s="173" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" s="165" t="s">
+        <v>682</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>710</v>
-      </c>
-      <c r="E129" s="163"/>
+        <v>683</v>
+      </c>
+      <c r="E129" s="162"/>
       <c r="F129" s="117" t="s">
         <v>22</v>
       </c>
@@ -30072,7 +30170,7 @@
       <c r="H129" s="112">
         <v>42412</v>
       </c>
-      <c r="I129" s="164"/>
+      <c r="I129" s="163"/>
       <c r="J129" s="105"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1">
@@ -30080,16 +30178,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-120]</v>
       </c>
-      <c r="B130" s="220" t="s">
-        <v>459</v>
-      </c>
-      <c r="C130" s="228"/>
-      <c r="D130" s="228"/>
-      <c r="E130" s="228"/>
-      <c r="F130" s="228"/>
-      <c r="G130" s="228"/>
+      <c r="B130" s="216" t="s">
+        <v>434</v>
+      </c>
+      <c r="C130" s="224"/>
+      <c r="D130" s="224"/>
+      <c r="E130" s="224"/>
+      <c r="F130" s="224"/>
+      <c r="G130" s="224"/>
       <c r="H130" s="112"/>
-      <c r="I130" s="228"/>
+      <c r="I130" s="224"/>
       <c r="J130" s="105"/>
     </row>
     <row r="131" spans="1:10" ht="96.75" customHeight="1">
@@ -30097,16 +30195,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-121]</v>
       </c>
-      <c r="B131" s="174" t="s">
-        <v>460</v>
-      </c>
-      <c r="C131" s="166" t="s">
-        <v>461</v>
+      <c r="B131" s="173" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" s="165" t="s">
+        <v>436</v>
       </c>
       <c r="D131" s="117" t="s">
-        <v>464</v>
-      </c>
-      <c r="E131" s="163"/>
+        <v>437</v>
+      </c>
+      <c r="E131" s="162"/>
       <c r="F131" s="117" t="s">
         <v>24</v>
       </c>
@@ -30116,7 +30214,7 @@
       <c r="H131" s="112">
         <v>42412</v>
       </c>
-      <c r="I131" s="164"/>
+      <c r="I131" s="163"/>
       <c r="J131" s="105"/>
     </row>
     <row r="132" spans="1:10" ht="88.5" customHeight="1">
@@ -30124,16 +30222,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-122]</v>
       </c>
-      <c r="B132" s="174" t="s">
-        <v>465</v>
-      </c>
-      <c r="C132" s="166" t="s">
-        <v>467</v>
+      <c r="B132" s="173" t="s">
+        <v>438</v>
+      </c>
+      <c r="C132" s="165" t="s">
+        <v>440</v>
       </c>
       <c r="D132" s="117" t="s">
-        <v>466</v>
-      </c>
-      <c r="E132" s="163"/>
+        <v>439</v>
+      </c>
+      <c r="E132" s="162"/>
       <c r="F132" s="117" t="s">
         <v>24</v>
       </c>
@@ -30143,7 +30241,7 @@
       <c r="H132" s="112">
         <v>42412</v>
       </c>
-      <c r="I132" s="164"/>
+      <c r="I132" s="163"/>
       <c r="J132" s="105"/>
     </row>
     <row r="133" spans="1:10" ht="88.5" customHeight="1">
@@ -30152,15 +30250,15 @@
         <v>[User_login-123]</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C133" s="117" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="E133" s="163"/>
+        <v>444</v>
+      </c>
+      <c r="E133" s="162"/>
       <c r="F133" s="117" t="s">
         <v>22</v>
       </c>
@@ -30170,7 +30268,7 @@
       <c r="H133" s="112">
         <v>42412</v>
       </c>
-      <c r="I133" s="164"/>
+      <c r="I133" s="163"/>
       <c r="J133" s="105"/>
     </row>
     <row r="134" spans="1:10" ht="88.5" customHeight="1">
@@ -30179,15 +30277,15 @@
         <v>[User_login-124]</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="C134" s="117" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>474</v>
-      </c>
-      <c r="E134" s="163"/>
+        <v>447</v>
+      </c>
+      <c r="E134" s="162"/>
       <c r="F134" s="117" t="s">
         <v>22</v>
       </c>
@@ -30197,7 +30295,7 @@
       <c r="H134" s="112">
         <v>42412</v>
       </c>
-      <c r="I134" s="164"/>
+      <c r="I134" s="163"/>
       <c r="J134" s="105"/>
     </row>
     <row r="135" spans="1:10" ht="88.5" customHeight="1">
@@ -30206,15 +30304,15 @@
         <v>[User_login-125]</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="C135" s="117" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="E135" s="163"/>
+        <v>444</v>
+      </c>
+      <c r="E135" s="162"/>
       <c r="F135" s="117" t="s">
         <v>22</v>
       </c>
@@ -30224,7 +30322,7 @@
       <c r="H135" s="112">
         <v>42412</v>
       </c>
-      <c r="I135" s="164"/>
+      <c r="I135" s="163"/>
       <c r="J135" s="105"/>
     </row>
     <row r="136" spans="1:10" ht="88.5" customHeight="1">
@@ -30233,15 +30331,15 @@
         <v>[User_login-126]</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="C136" s="117" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="E136" s="163"/>
+        <v>444</v>
+      </c>
+      <c r="E136" s="162"/>
       <c r="F136" s="117" t="s">
         <v>22</v>
       </c>
@@ -30251,7 +30349,7 @@
       <c r="H136" s="112">
         <v>42412</v>
       </c>
-      <c r="I136" s="164"/>
+      <c r="I136" s="163"/>
       <c r="J136" s="105"/>
     </row>
     <row r="137" spans="1:10" ht="59.25" customHeight="1">
@@ -30260,15 +30358,15 @@
         <v>[User_login-127]</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="C137" s="117" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="E137" s="163"/>
+        <v>444</v>
+      </c>
+      <c r="E137" s="162"/>
       <c r="F137" s="117" t="s">
         <v>22</v>
       </c>
@@ -30278,7 +30376,7 @@
       <c r="H137" s="112">
         <v>42412</v>
       </c>
-      <c r="I137" s="164"/>
+      <c r="I137" s="163"/>
       <c r="J137" s="105"/>
     </row>
     <row r="138" spans="1:10" ht="78" customHeight="1">
@@ -30287,15 +30385,15 @@
         <v>[User_login-128]</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="C138" s="117" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="E138" s="163"/>
+        <v>444</v>
+      </c>
+      <c r="E138" s="162"/>
       <c r="F138" s="117" t="s">
         <v>22</v>
       </c>
@@ -30305,7 +30403,7 @@
       <c r="H138" s="112">
         <v>42412</v>
       </c>
-      <c r="I138" s="164"/>
+      <c r="I138" s="163"/>
       <c r="J138" s="105"/>
     </row>
     <row r="139" spans="1:10" ht="79.5" customHeight="1">
@@ -30314,15 +30412,15 @@
         <v>[User_login-129]</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C139" s="117" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>471</v>
-      </c>
-      <c r="E139" s="163"/>
+        <v>444</v>
+      </c>
+      <c r="E139" s="162"/>
       <c r="F139" s="117" t="s">
         <v>22</v>
       </c>
@@ -30332,7 +30430,7 @@
       <c r="H139" s="112">
         <v>42412</v>
       </c>
-      <c r="I139" s="164"/>
+      <c r="I139" s="163"/>
       <c r="J139" s="105"/>
     </row>
     <row r="140" spans="1:10" ht="79.5" customHeight="1">
@@ -30341,15 +30439,15 @@
         <v>[User_login-130]</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="C140" s="117" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D140" s="117" t="s">
-        <v>482</v>
-      </c>
-      <c r="E140" s="163"/>
+        <v>455</v>
+      </c>
+      <c r="E140" s="162"/>
       <c r="F140" s="117" t="s">
         <v>22</v>
       </c>
@@ -30359,7 +30457,7 @@
       <c r="H140" s="112">
         <v>42412</v>
       </c>
-      <c r="I140" s="164"/>
+      <c r="I140" s="163"/>
       <c r="J140" s="105"/>
     </row>
     <row r="141" spans="1:10" ht="74.25" customHeight="1">
@@ -30368,15 +30466,15 @@
         <v>[User_login-131]</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="C141" s="117" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>483</v>
-      </c>
-      <c r="E141" s="163"/>
+        <v>456</v>
+      </c>
+      <c r="E141" s="162"/>
       <c r="F141" s="117" t="s">
         <v>22</v>
       </c>
@@ -30386,7 +30484,7 @@
       <c r="H141" s="112">
         <v>42412</v>
       </c>
-      <c r="I141" s="164"/>
+      <c r="I141" s="163"/>
       <c r="J141" s="105"/>
     </row>
     <row r="142" spans="1:10" ht="75" customHeight="1">
@@ -30395,39 +30493,39 @@
         <v>[User_login-132]</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="C142" s="117" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>486</v>
-      </c>
-      <c r="E142" s="176"/>
+        <v>459</v>
+      </c>
+      <c r="E142" s="175"/>
       <c r="F142" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="G142" s="175" t="s">
+      <c r="G142" s="174" t="s">
         <v>22</v>
       </c>
       <c r="H142" s="112">
         <v>42412</v>
       </c>
-      <c r="I142" s="173"/>
+      <c r="I142" s="172"/>
       <c r="J142" s="105"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1">
       <c r="A143" s="61"/>
-      <c r="B143" s="220" t="s">
-        <v>488</v>
-      </c>
-      <c r="C143" s="228"/>
-      <c r="D143" s="228"/>
-      <c r="E143" s="228"/>
-      <c r="F143" s="228"/>
-      <c r="G143" s="228"/>
+      <c r="B143" s="216" t="s">
+        <v>461</v>
+      </c>
+      <c r="C143" s="224"/>
+      <c r="D143" s="224"/>
+      <c r="E143" s="224"/>
+      <c r="F143" s="224"/>
+      <c r="G143" s="224"/>
       <c r="H143" s="112"/>
-      <c r="I143" s="228"/>
+      <c r="I143" s="224"/>
       <c r="J143" s="105"/>
     </row>
     <row r="144" spans="1:10" ht="79.5" customHeight="1">
@@ -30435,16 +30533,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-134]</v>
       </c>
-      <c r="B144" s="174" t="s">
-        <v>489</v>
+      <c r="B144" s="173" t="s">
+        <v>462</v>
       </c>
       <c r="C144" s="117" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="D144" s="117" t="s">
-        <v>491</v>
-      </c>
-      <c r="E144" s="163"/>
+        <v>464</v>
+      </c>
+      <c r="E144" s="162"/>
       <c r="F144" s="117" t="s">
         <v>22</v>
       </c>
@@ -30454,7 +30552,7 @@
       <c r="H144" s="112">
         <v>42412</v>
       </c>
-      <c r="I144" s="164"/>
+      <c r="I144" s="163"/>
       <c r="J144" s="105"/>
     </row>
     <row r="145" spans="1:16" ht="83.25" customHeight="1">
@@ -30462,16 +30560,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-135]</v>
       </c>
-      <c r="B145" s="174" t="s">
-        <v>492</v>
+      <c r="B145" s="173" t="s">
+        <v>465</v>
       </c>
       <c r="C145" s="117" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="D145" s="117" t="s">
-        <v>493</v>
-      </c>
-      <c r="E145" s="163"/>
+        <v>466</v>
+      </c>
+      <c r="E145" s="162"/>
       <c r="F145" s="117" t="s">
         <v>22</v>
       </c>
@@ -30481,7 +30579,7 @@
       <c r="H145" s="112">
         <v>42412</v>
       </c>
-      <c r="I145" s="164"/>
+      <c r="I145" s="163"/>
       <c r="J145" s="105"/>
     </row>
     <row r="146" spans="1:16" ht="91.5" customHeight="1">
@@ -30489,16 +30587,16 @@
         <f t="shared" si="12"/>
         <v>[User_login-136]</v>
       </c>
-      <c r="B146" s="174" t="s">
-        <v>494</v>
+      <c r="B146" s="173" t="s">
+        <v>467</v>
       </c>
       <c r="C146" s="117" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="D146" s="117" t="s">
-        <v>495</v>
-      </c>
-      <c r="E146" s="163"/>
+        <v>468</v>
+      </c>
+      <c r="E146" s="162"/>
       <c r="F146" s="117" t="s">
         <v>22</v>
       </c>
@@ -30508,7 +30606,7 @@
       <c r="H146" s="112">
         <v>42412</v>
       </c>
-      <c r="I146" s="164"/>
+      <c r="I146" s="163"/>
       <c r="J146" s="105"/>
     </row>
     <row r="147" spans="1:16" ht="101.25" customHeight="1">
@@ -30516,16 +30614,16 @@
         <f t="shared" ref="A147:A152" si="13">IF(OR(B147&lt;&gt;"",D147&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-137]</v>
       </c>
-      <c r="B147" s="174" t="s">
-        <v>496</v>
+      <c r="B147" s="173" t="s">
+        <v>469</v>
       </c>
       <c r="C147" s="117" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="D147" s="117" t="s">
-        <v>501</v>
-      </c>
-      <c r="E147" s="163"/>
+        <v>474</v>
+      </c>
+      <c r="E147" s="162"/>
       <c r="F147" s="117" t="s">
         <v>22</v>
       </c>
@@ -30535,7 +30633,7 @@
       <c r="H147" s="112">
         <v>42412</v>
       </c>
-      <c r="I147" s="164"/>
+      <c r="I147" s="163"/>
       <c r="J147" s="105"/>
     </row>
     <row r="148" spans="1:16" ht="102" customHeight="1">
@@ -30543,16 +30641,16 @@
         <f t="shared" si="13"/>
         <v>[User_login-138]</v>
       </c>
-      <c r="B148" s="174" t="s">
-        <v>498</v>
+      <c r="B148" s="173" t="s">
+        <v>471</v>
       </c>
       <c r="C148" s="117" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="D148" s="117" t="s">
-        <v>500</v>
-      </c>
-      <c r="E148" s="163"/>
+        <v>473</v>
+      </c>
+      <c r="E148" s="162"/>
       <c r="F148" s="117" t="s">
         <v>22</v>
       </c>
@@ -30562,21 +30660,21 @@
       <c r="H148" s="112">
         <v>42412</v>
       </c>
-      <c r="I148" s="164"/>
+      <c r="I148" s="163"/>
       <c r="J148" s="105"/>
     </row>
     <row r="149" spans="1:16" ht="14.25" customHeight="1">
       <c r="A149" s="61"/>
-      <c r="B149" s="220" t="s">
-        <v>502</v>
-      </c>
-      <c r="C149" s="228"/>
-      <c r="D149" s="228"/>
-      <c r="E149" s="228"/>
-      <c r="F149" s="228"/>
-      <c r="G149" s="228"/>
+      <c r="B149" s="216" t="s">
+        <v>475</v>
+      </c>
+      <c r="C149" s="224"/>
+      <c r="D149" s="224"/>
+      <c r="E149" s="224"/>
+      <c r="F149" s="224"/>
+      <c r="G149" s="224"/>
       <c r="H149" s="112"/>
-      <c r="I149" s="228"/>
+      <c r="I149" s="224"/>
       <c r="J149" s="105"/>
     </row>
     <row r="150" spans="1:16" ht="38.25">
@@ -30584,14 +30682,14 @@
         <f t="shared" si="13"/>
         <v>[User_login-140]</v>
       </c>
-      <c r="B150" s="174" t="s">
-        <v>503</v>
+      <c r="B150" s="173" t="s">
+        <v>476</v>
       </c>
       <c r="C150" s="117" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="D150" s="117" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="E150" s="118"/>
       <c r="F150" s="117" t="s">
@@ -30611,14 +30709,14 @@
         <f t="shared" si="13"/>
         <v>[User_login-141]</v>
       </c>
-      <c r="B151" s="174" t="s">
-        <v>506</v>
+      <c r="B151" s="173" t="s">
+        <v>479</v>
       </c>
       <c r="C151" s="117" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="D151" s="117" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="E151" s="118"/>
       <c r="F151" s="117" t="s">
@@ -30638,14 +30736,14 @@
         <f t="shared" si="13"/>
         <v>[User_login-142]</v>
       </c>
-      <c r="B152" s="174" t="s">
-        <v>507</v>
+      <c r="B152" s="173" t="s">
+        <v>480</v>
       </c>
       <c r="C152" s="117" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="D152" s="117" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="E152" s="118"/>
       <c r="F152" s="117" t="s">
@@ -30665,14 +30763,14 @@
         <f t="shared" ref="A153" si="14">IF(OR(B153&lt;&gt;"",D153&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-143]</v>
       </c>
-      <c r="B153" s="174" t="s">
-        <v>508</v>
+      <c r="B153" s="173" t="s">
+        <v>481</v>
       </c>
       <c r="C153" s="117" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="D153" s="117" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="E153" s="118"/>
       <c r="F153" s="117" t="s">
@@ -30692,14 +30790,14 @@
         <f t="shared" ref="A154:A155" si="15">IF(OR(B154&lt;&gt;"",D154&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User_login-144]</v>
       </c>
-      <c r="B154" s="174" t="s">
-        <v>509</v>
+      <c r="B154" s="173" t="s">
+        <v>482</v>
       </c>
       <c r="C154" s="117" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="D154" s="117" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="E154" s="118"/>
       <c r="F154" s="117" t="s">
@@ -30719,14 +30817,14 @@
         <f t="shared" si="15"/>
         <v>[User_login-145]</v>
       </c>
-      <c r="B155" s="240" t="s">
-        <v>510</v>
+      <c r="B155" s="236" t="s">
+        <v>483</v>
       </c>
       <c r="C155" s="117" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="D155" s="117" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="E155" s="118"/>
       <c r="F155" s="117" t="s">
@@ -30742,64 +30840,64 @@
       <c r="J155" s="105"/>
     </row>
     <row r="156" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A156" s="200"/>
-      <c r="B156" s="201"/>
-      <c r="C156" s="201"/>
-      <c r="D156" s="201"/>
-      <c r="E156" s="200"/>
-      <c r="F156" s="201"/>
-      <c r="G156" s="201"/>
+      <c r="A156" s="199"/>
+      <c r="B156" s="200"/>
+      <c r="C156" s="200"/>
+      <c r="D156" s="200"/>
+      <c r="E156" s="199"/>
+      <c r="F156" s="200"/>
+      <c r="G156" s="200"/>
       <c r="H156" s="112"/>
-      <c r="I156" s="202"/>
+      <c r="I156" s="201"/>
       <c r="J156" s="105"/>
-      <c r="K156" s="172"/>
-      <c r="L156" s="172"/>
-      <c r="M156" s="172"/>
-      <c r="N156" s="172"/>
-      <c r="O156" s="172"/>
-      <c r="P156" s="172"/>
-    </row>
-    <row r="157" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B157" s="172" t="s">
+      <c r="K156" s="171"/>
+      <c r="L156" s="171"/>
+      <c r="M156" s="171"/>
+      <c r="N156" s="171"/>
+      <c r="O156" s="171"/>
+      <c r="P156" s="171"/>
+    </row>
+    <row r="157" spans="1:16" s="171" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B157" s="171" t="s">
         <v>133</v>
       </c>
       <c r="H157" s="112"/>
-      <c r="K157" s="198"/>
-      <c r="L157" s="198"/>
-      <c r="M157" s="198"/>
-      <c r="N157" s="198"/>
-      <c r="O157" s="198"/>
-      <c r="P157" s="198"/>
-    </row>
-    <row r="158" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A158" s="193"/>
-      <c r="B158" s="194" t="s">
+      <c r="K157" s="197"/>
+      <c r="L157" s="197"/>
+      <c r="M157" s="197"/>
+      <c r="N157" s="197"/>
+      <c r="O157" s="197"/>
+      <c r="P157" s="197"/>
+    </row>
+    <row r="158" spans="1:16" s="191" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A158" s="192"/>
+      <c r="B158" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C158" s="195"/>
-      <c r="D158" s="195"/>
-      <c r="E158" s="195"/>
-      <c r="F158" s="195"/>
-      <c r="G158" s="195"/>
+      <c r="C158" s="194"/>
+      <c r="D158" s="194"/>
+      <c r="E158" s="194"/>
+      <c r="F158" s="194"/>
+      <c r="G158" s="194"/>
       <c r="H158" s="112"/>
-      <c r="I158" s="195"/>
-      <c r="K158" s="198"/>
-      <c r="L158" s="198"/>
-      <c r="M158" s="198"/>
-      <c r="N158" s="198"/>
-      <c r="O158" s="198"/>
-      <c r="P158" s="198"/>
-    </row>
-    <row r="159" spans="1:16" s="197" customFormat="1" ht="15" customHeight="1">
+      <c r="I158" s="194"/>
+      <c r="K158" s="197"/>
+      <c r="L158" s="197"/>
+      <c r="M158" s="197"/>
+      <c r="N158" s="197"/>
+      <c r="O158" s="197"/>
+      <c r="P158" s="197"/>
+    </row>
+    <row r="159" spans="1:16" s="196" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A158)+1)</f>
         <v>ID-137</v>
       </c>
       <c r="B159" s="117" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C159" s="117" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D159" s="117" t="s">
         <v>135</v>
@@ -30814,9 +30912,9 @@
       <c r="H159" s="112">
         <v>42412</v>
       </c>
-      <c r="I159" s="196"/>
-    </row>
-    <row r="160" spans="1:16" s="197" customFormat="1" ht="12" customHeight="1">
+      <c r="I159" s="195"/>
+    </row>
+    <row r="160" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
       <c r="A160" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A159)+1)</f>
         <v>ID-138</v>
@@ -30825,7 +30923,7 @@
         <v>169</v>
       </c>
       <c r="C160" s="117" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D160" s="117" t="s">
         <v>135</v>
@@ -30840,15 +30938,15 @@
       <c r="H160" s="112">
         <v>42412</v>
       </c>
-      <c r="I160" s="196"/>
-      <c r="K160" s="192"/>
-      <c r="L160" s="192"/>
-      <c r="M160" s="192"/>
-      <c r="N160" s="192"/>
-      <c r="O160" s="192"/>
-      <c r="P160" s="192"/>
-    </row>
-    <row r="161" spans="1:16" s="197" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I160" s="195"/>
+      <c r="K160" s="191"/>
+      <c r="L160" s="191"/>
+      <c r="M160" s="191"/>
+      <c r="N160" s="191"/>
+      <c r="O160" s="191"/>
+      <c r="P160" s="191"/>
+    </row>
+    <row r="161" spans="1:16" s="196" customFormat="1" ht="14.25" customHeight="1">
       <c r="A161" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A160)+1)</f>
         <v>ID-139</v>
@@ -30857,7 +30955,7 @@
         <v>170</v>
       </c>
       <c r="C161" s="117" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D161" s="117" t="s">
         <v>135</v>
@@ -30872,24 +30970,24 @@
       <c r="H161" s="112">
         <v>42412</v>
       </c>
-      <c r="I161" s="196"/>
-      <c r="K161" s="192"/>
-      <c r="L161" s="192"/>
-      <c r="M161" s="192"/>
-      <c r="N161" s="192"/>
-      <c r="O161" s="192"/>
-      <c r="P161" s="192"/>
-    </row>
-    <row r="162" spans="1:16" s="197" customFormat="1" ht="14.25" customHeight="1">
+      <c r="I161" s="195"/>
+      <c r="K161" s="191"/>
+      <c r="L161" s="191"/>
+      <c r="M161" s="191"/>
+      <c r="N161" s="191"/>
+      <c r="O161" s="191"/>
+      <c r="P161" s="191"/>
+    </row>
+    <row r="162" spans="1:16" s="196" customFormat="1" ht="14.25" customHeight="1">
       <c r="A162" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A161)+1)</f>
         <v>ID-140</v>
       </c>
       <c r="B162" s="117" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="C162" s="117" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="D162" s="117" t="s">
         <v>135</v>
@@ -30905,15 +31003,15 @@
         <v>42412</v>
       </c>
       <c r="I162" s="117"/>
-      <c r="K162" s="192"/>
-      <c r="L162" s="192"/>
-      <c r="M162" s="192"/>
-      <c r="N162" s="192"/>
-      <c r="O162" s="192"/>
-      <c r="P162" s="192"/>
-    </row>
-    <row r="163" spans="1:16" s="172" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B163" s="172" t="s">
+      <c r="K162" s="191"/>
+      <c r="L162" s="191"/>
+      <c r="M162" s="191"/>
+      <c r="N162" s="191"/>
+      <c r="O162" s="191"/>
+      <c r="P162" s="191"/>
+    </row>
+    <row r="163" spans="1:16" s="171" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B163" s="171" t="s">
         <v>136</v>
       </c>
       <c r="F163" s="117" t="s">
@@ -30923,14 +31021,14 @@
         <v>22</v>
       </c>
       <c r="H163" s="112"/>
-      <c r="K163" s="192"/>
-      <c r="L163" s="192"/>
-      <c r="M163" s="192"/>
-      <c r="N163" s="192"/>
-      <c r="O163" s="192"/>
-      <c r="P163" s="192"/>
-    </row>
-    <row r="164" spans="1:16" s="198" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K163" s="191"/>
+      <c r="L163" s="191"/>
+      <c r="M163" s="191"/>
+      <c r="N163" s="191"/>
+      <c r="O163" s="191"/>
+      <c r="P163" s="191"/>
+    </row>
+    <row r="164" spans="1:16" s="197" customFormat="1" ht="14.25" customHeight="1">
       <c r="A164" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A163)+1)</f>
         <v>ID-141</v>
@@ -30955,14 +31053,14 @@
         <v>42412</v>
       </c>
       <c r="I164" s="117"/>
-      <c r="K164" s="192"/>
-      <c r="L164" s="192"/>
-      <c r="M164" s="192"/>
-      <c r="N164" s="192"/>
-      <c r="O164" s="192"/>
-      <c r="P164" s="192"/>
-    </row>
-    <row r="165" spans="1:16" s="198" customFormat="1" ht="25.5">
+      <c r="K164" s="191"/>
+      <c r="L164" s="191"/>
+      <c r="M164" s="191"/>
+      <c r="N164" s="191"/>
+      <c r="O164" s="191"/>
+      <c r="P164" s="191"/>
+    </row>
+    <row r="165" spans="1:16" s="197" customFormat="1" ht="25.5">
       <c r="A165" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A164)+1)</f>
         <v>ID-142</v>
@@ -30987,14 +31085,14 @@
         <v>42412</v>
       </c>
       <c r="I165" s="117"/>
-      <c r="K165" s="192"/>
-      <c r="L165" s="192"/>
-      <c r="M165" s="192"/>
-      <c r="N165" s="192"/>
-      <c r="O165" s="192"/>
-      <c r="P165" s="192"/>
-    </row>
-    <row r="166" spans="1:16" s="198" customFormat="1" ht="38.25">
+      <c r="K165" s="191"/>
+      <c r="L165" s="191"/>
+      <c r="M165" s="191"/>
+      <c r="N165" s="191"/>
+      <c r="O165" s="191"/>
+      <c r="P165" s="191"/>
+    </row>
+    <row r="166" spans="1:16" s="197" customFormat="1" ht="38.25">
       <c r="A166" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A165)+1)</f>
         <v>ID-143</v>
@@ -31019,14 +31117,14 @@
         <v>42412</v>
       </c>
       <c r="I166" s="117"/>
-      <c r="K166" s="192"/>
-      <c r="L166" s="192"/>
-      <c r="M166" s="192"/>
-      <c r="N166" s="192"/>
-      <c r="O166" s="192"/>
-      <c r="P166" s="192"/>
-    </row>
-    <row r="167" spans="1:16" s="197" customFormat="1" ht="25.5">
+      <c r="K166" s="191"/>
+      <c r="L166" s="191"/>
+      <c r="M166" s="191"/>
+      <c r="N166" s="191"/>
+      <c r="O166" s="191"/>
+      <c r="P166" s="191"/>
+    </row>
+    <row r="167" spans="1:16" s="196" customFormat="1" ht="25.5">
       <c r="A167" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A166)+1)</f>
         <v>ID-144</v>
@@ -31051,14 +31149,14 @@
         <v>42412</v>
       </c>
       <c r="I167" s="117"/>
-      <c r="K167" s="192"/>
-      <c r="L167" s="192"/>
-      <c r="M167" s="192"/>
-      <c r="N167" s="192"/>
-      <c r="O167" s="192"/>
-      <c r="P167" s="192"/>
-    </row>
-    <row r="168" spans="1:16" s="192" customFormat="1" ht="33.75" customHeight="1">
+      <c r="K167" s="191"/>
+      <c r="L167" s="191"/>
+      <c r="M167" s="191"/>
+      <c r="N167" s="191"/>
+      <c r="O167" s="191"/>
+      <c r="P167" s="191"/>
+    </row>
+    <row r="168" spans="1:16" s="191" customFormat="1" ht="33.75" customHeight="1">
       <c r="A168" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A167)+1)</f>
         <v>ID-145</v>
@@ -31090,7 +31188,7 @@
       <c r="O168" s="105"/>
       <c r="P168" s="105"/>
     </row>
-    <row r="169" spans="1:16" s="192" customFormat="1" ht="36.75" customHeight="1">
+    <row r="169" spans="1:16" s="191" customFormat="1" ht="36.75" customHeight="1">
       <c r="A169" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A168)+1)</f>
         <v>ID-146</v>
@@ -31122,19 +31220,19 @@
       <c r="O169" s="105"/>
       <c r="P169" s="105"/>
     </row>
-    <row r="170" spans="1:16" s="192" customFormat="1" ht="38.25" customHeight="1">
+    <row r="170" spans="1:16" s="191" customFormat="1" ht="38.25" customHeight="1">
       <c r="A170" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A169)+1)</f>
         <v>ID-147</v>
       </c>
       <c r="B170" s="117" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="C170" s="117" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="D170" s="117" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="E170" s="117"/>
       <c r="F170" s="117" t="s">
@@ -31154,7 +31252,7 @@
       <c r="O170" s="105"/>
       <c r="P170" s="105"/>
     </row>
-    <row r="171" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
+    <row r="171" spans="1:16" s="191" customFormat="1" ht="14.25" customHeight="1">
       <c r="A171" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A170)+1)</f>
         <v>ID-148</v>
@@ -31186,7 +31284,7 @@
       <c r="O171" s="105"/>
       <c r="P171" s="105"/>
     </row>
-    <row r="172" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
+    <row r="172" spans="1:16" s="191" customFormat="1" ht="14.25" customHeight="1">
       <c r="A172" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A171)+1)</f>
         <v>ID-149</v>
@@ -31218,7 +31316,7 @@
       <c r="O172" s="105"/>
       <c r="P172" s="105"/>
     </row>
-    <row r="173" spans="1:16" s="192" customFormat="1" ht="28.5" customHeight="1">
+    <row r="173" spans="1:16" s="191" customFormat="1" ht="28.5" customHeight="1">
       <c r="A173" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A172)+1)</f>
         <v>ID-150</v>
@@ -31250,7 +31348,7 @@
       <c r="O173" s="105"/>
       <c r="P173" s="105"/>
     </row>
-    <row r="174" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
+    <row r="174" spans="1:16" s="191" customFormat="1" ht="14.25" customHeight="1">
       <c r="A174" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A173)+1)</f>
         <v>ID-151</v>
@@ -31282,7 +31380,7 @@
       <c r="O174" s="105"/>
       <c r="P174" s="105"/>
     </row>
-    <row r="175" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
+    <row r="175" spans="1:16" s="191" customFormat="1" ht="14.25" customHeight="1">
       <c r="A175" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A174)+1)</f>
         <v>ID-152</v>
@@ -31314,7 +31412,7 @@
       <c r="O175" s="105"/>
       <c r="P175" s="105"/>
     </row>
-    <row r="176" spans="1:16" s="192" customFormat="1" ht="14.25" customHeight="1">
+    <row r="176" spans="1:16" s="191" customFormat="1" ht="14.25" customHeight="1">
       <c r="A176" s="117" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A175)+1)</f>
         <v>ID-153</v>
@@ -31390,8 +31488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69:G80"/>
+    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -31427,14 +31525,14 @@
       <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
       <c r="J2" s="95" t="s">
         <v>22</v>
       </c>
@@ -31443,14 +31541,14 @@
       <c r="A3" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="251" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
       <c r="J3" s="95" t="s">
         <v>24</v>
       </c>
@@ -31459,14 +31557,14 @@
       <c r="A4" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="252" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
       <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31482,11 +31580,11 @@
       <c r="D5" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="260" t="s">
+      <c r="E5" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
       <c r="J5" s="95" t="s">
         <v>29</v>
       </c>
@@ -31508,34 +31606,34 @@
         <f>COUNTIF(F11:G761,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="258">
+      <c r="E6" s="254">
         <f>COUNTA(A11:A318)*2</f>
         <v>128</v>
       </c>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
       <c r="J6" s="95" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="137" customFormat="1" ht="14.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
       <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" s="137" customFormat="1" ht="14.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" s="137" customFormat="1"/>
@@ -31569,17 +31667,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="137" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="259" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="255" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="255"/>
     </row>
     <row r="12" spans="1:10" s="111" customFormat="1" ht="48.75" customHeight="1">
       <c r="A12" s="134" t="str">
@@ -31590,22 +31688,22 @@
         <v>60</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="178"/>
+        <v>273</v>
+      </c>
+      <c r="E12" s="177"/>
       <c r="F12" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="242">
+      <c r="H12" s="238">
         <v>42412</v>
       </c>
-      <c r="I12" s="179"/>
+      <c r="I12" s="178"/>
     </row>
     <row r="13" spans="1:10" s="111" customFormat="1" ht="110.25" customHeight="1">
       <c r="A13" s="134" t="str">
@@ -31613,25 +31711,25 @@
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="180"/>
+        <v>300</v>
+      </c>
+      <c r="E13" s="179"/>
       <c r="F13" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="242">
+      <c r="H13" s="238">
         <v>42412</v>
       </c>
-      <c r="I13" s="181"/>
+      <c r="I13" s="180"/>
     </row>
     <row r="14" spans="1:10" s="111" customFormat="1" ht="54" customHeight="1">
       <c r="A14" s="134" t="str">
@@ -31639,25 +31737,25 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E14" s="179"/>
       <c r="F14" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="242">
+      <c r="H14" s="238">
         <v>42412</v>
       </c>
-      <c r="I14" s="181"/>
+      <c r="I14" s="180"/>
     </row>
     <row r="15" spans="1:10" s="111" customFormat="1" ht="64.5" customHeight="1">
       <c r="A15" s="134" t="str">
@@ -31665,51 +31763,51 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E15" s="179"/>
       <c r="F15" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="242">
+      <c r="H15" s="238">
         <v>42412</v>
       </c>
-      <c r="I15" s="181"/>
+      <c r="I15" s="180"/>
     </row>
     <row r="16" spans="1:10" s="111" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A16" s="206" t="str">
+      <c r="A16" s="202" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C16" s="121" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E16" s="179"/>
       <c r="F16" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="242">
+      <c r="H16" s="238">
         <v>42412</v>
       </c>
-      <c r="I16" s="181"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="134" t="str">
@@ -31717,137 +31815,137 @@
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E17" s="179"/>
       <c r="F17" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="242">
+      <c r="H17" s="238">
         <v>42412</v>
       </c>
-      <c r="I17" s="181"/>
+      <c r="I17" s="180"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A18" s="213" t="str">
+      <c r="A18" s="209" t="str">
         <f t="shared" ref="A18" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-8]</v>
       </c>
-      <c r="B18" s="214" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" s="214" t="s">
-        <v>326</v>
+      <c r="B18" s="210" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="210" t="s">
+        <v>301</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E18" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E18" s="179"/>
       <c r="F18" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="242">
+      <c r="H18" s="238">
         <v>42412</v>
       </c>
-      <c r="I18" s="181"/>
+      <c r="I18" s="180"/>
     </row>
     <row r="19" spans="1:10" s="111" customFormat="1" ht="86.25" customHeight="1">
-      <c r="A19" s="213" t="str">
+      <c r="A19" s="209" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-9]</v>
       </c>
-      <c r="B19" s="214" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="214" t="s">
-        <v>327</v>
+      <c r="B19" s="210" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>302</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E19" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E19" s="179"/>
       <c r="F19" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="242">
+      <c r="H19" s="238">
         <v>42412</v>
       </c>
-      <c r="I19" s="181"/>
+      <c r="I19" s="180"/>
     </row>
     <row r="20" spans="1:10" ht="75" customHeight="1">
-      <c r="A20" s="213" t="str">
+      <c r="A20" s="209" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-10]</v>
       </c>
-      <c r="B20" s="214" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="214" t="s">
-        <v>328</v>
+      <c r="B20" s="210" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="210" t="s">
+        <v>303</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E20" s="180"/>
+        <v>295</v>
+      </c>
+      <c r="E20" s="179"/>
       <c r="F20" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="242">
+      <c r="H20" s="238">
         <v>42412</v>
       </c>
-      <c r="I20" s="182"/>
+      <c r="I20" s="181"/>
       <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="183"/>
-      <c r="B21" s="184" t="s">
-        <v>511</v>
-      </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="242">
+      <c r="A21" s="182"/>
+      <c r="B21" s="183" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="238">
         <v>42412</v>
       </c>
-      <c r="I21" s="185"/>
+      <c r="I21" s="184"/>
       <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A22" s="165" t="str">
+      <c r="A22" s="164" t="str">
         <f t="shared" ref="A22:A24" si="2">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C22" s="117" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>719</v>
-      </c>
-      <c r="E22" s="186" t="s">
-        <v>341</v>
+        <v>692</v>
+      </c>
+      <c r="E22" s="185" t="s">
+        <v>316</v>
       </c>
       <c r="F22" s="117" t="s">
         <v>22</v>
@@ -31855,28 +31953,28 @@
       <c r="G22" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="242">
+      <c r="H22" s="238">
         <v>42412</v>
       </c>
-      <c r="I22" s="182"/>
+      <c r="I22" s="181"/>
       <c r="J22" s="105"/>
     </row>
     <row r="23" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A23" s="165" t="str">
+      <c r="A23" s="164" t="str">
         <f t="shared" si="2"/>
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" s="187" t="s">
-        <v>338</v>
-      </c>
-      <c r="E23" s="186" t="s">
-        <v>341</v>
+        <v>318</v>
+      </c>
+      <c r="D23" s="186" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="185" t="s">
+        <v>316</v>
       </c>
       <c r="F23" s="117" t="s">
         <v>22</v>
@@ -31884,28 +31982,28 @@
       <c r="G23" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="242">
+      <c r="H23" s="238">
         <v>42412</v>
       </c>
-      <c r="I23" s="182"/>
+      <c r="I23" s="181"/>
       <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A24" s="165" t="str">
+      <c r="A24" s="164" t="str">
         <f t="shared" si="2"/>
         <v>[Admin_login-14]</v>
       </c>
       <c r="B24" s="117" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C24" s="117" t="s">
-        <v>344</v>
-      </c>
-      <c r="D24" s="187" t="s">
-        <v>340</v>
-      </c>
-      <c r="E24" s="186" t="s">
-        <v>341</v>
+        <v>319</v>
+      </c>
+      <c r="D24" s="186" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="185" t="s">
+        <v>316</v>
       </c>
       <c r="F24" s="117" t="s">
         <v>22</v>
@@ -31913,1470 +32011,1470 @@
       <c r="G24" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="242">
+      <c r="H24" s="238">
         <v>42412</v>
       </c>
-      <c r="I24" s="182"/>
+      <c r="I24" s="181"/>
       <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A25" s="183"/>
-      <c r="B25" s="184" t="s">
-        <v>512</v>
-      </c>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="242"/>
-      <c r="I25" s="185"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="183" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="184"/>
       <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A26" s="165" t="str">
+      <c r="A26" s="164" t="str">
         <f t="shared" ref="A26:A30" si="3">IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-16]</v>
       </c>
       <c r="B26" s="117" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C26" s="117" t="s">
-        <v>721</v>
-      </c>
-      <c r="D26" s="187" t="s">
-        <v>722</v>
-      </c>
-      <c r="E26" s="186"/>
+        <v>694</v>
+      </c>
+      <c r="D26" s="186" t="s">
+        <v>695</v>
+      </c>
+      <c r="E26" s="185"/>
       <c r="F26" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="242">
+      <c r="H26" s="238">
         <v>42412</v>
       </c>
       <c r="I26" s="117"/>
       <c r="J26" s="105"/>
     </row>
     <row r="27" spans="1:10" ht="77.25" customHeight="1">
-      <c r="A27" s="165" t="str">
+      <c r="A27" s="164" t="str">
         <f t="shared" si="3"/>
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>723</v>
-      </c>
-      <c r="D27" s="187" t="s">
-        <v>724</v>
-      </c>
-      <c r="E27" s="186"/>
+        <v>696</v>
+      </c>
+      <c r="D27" s="186" t="s">
+        <v>697</v>
+      </c>
+      <c r="E27" s="185"/>
       <c r="F27" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="242">
+      <c r="H27" s="238">
         <v>42412</v>
       </c>
       <c r="I27" s="117"/>
       <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="58.5" customHeight="1">
-      <c r="A28" s="165" t="str">
+      <c r="A28" s="164" t="str">
         <f t="shared" si="3"/>
         <v>[Admin_login-18]</v>
       </c>
       <c r="B28" s="117" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C28" s="117" t="s">
-        <v>725</v>
-      </c>
-      <c r="D28" s="187" t="s">
-        <v>348</v>
-      </c>
-      <c r="E28" s="186"/>
+        <v>698</v>
+      </c>
+      <c r="D28" s="186" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" s="185"/>
       <c r="F28" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="242">
+      <c r="H28" s="238">
         <v>42412</v>
       </c>
-      <c r="I28" s="182"/>
+      <c r="I28" s="181"/>
       <c r="J28" s="105"/>
     </row>
     <row r="29" spans="1:10" ht="58.5" customHeight="1">
-      <c r="A29" s="165" t="str">
+      <c r="A29" s="164" t="str">
         <f t="shared" ref="A29" si="4">IF(OR(B29&lt;&gt;"",D29&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-19]</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>549</v>
-      </c>
-      <c r="D29" s="187" t="s">
-        <v>551</v>
-      </c>
-      <c r="E29" s="186"/>
+        <v>522</v>
+      </c>
+      <c r="D29" s="186" t="s">
+        <v>524</v>
+      </c>
+      <c r="E29" s="185"/>
       <c r="F29" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="242">
+      <c r="H29" s="238">
         <v>42412</v>
       </c>
-      <c r="I29" s="182"/>
+      <c r="I29" s="181"/>
       <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" ht="52.5" customHeight="1">
-      <c r="A30" s="165" t="str">
+      <c r="A30" s="164" t="str">
         <f t="shared" si="3"/>
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="C30" s="117" t="s">
-        <v>550</v>
-      </c>
-      <c r="D30" s="187" t="s">
-        <v>552</v>
-      </c>
-      <c r="E30" s="186"/>
+        <v>523</v>
+      </c>
+      <c r="D30" s="186" t="s">
+        <v>525</v>
+      </c>
+      <c r="E30" s="185"/>
       <c r="F30" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="242">
+      <c r="H30" s="238">
         <v>42412</v>
       </c>
-      <c r="I30" s="182"/>
+      <c r="I30" s="181"/>
       <c r="J30" s="105"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="165"/>
-      <c r="B31" s="184" t="s">
-        <v>513</v>
-      </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="242"/>
-      <c r="I31" s="185"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="183" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="184"/>
       <c r="J31" s="105"/>
     </row>
     <row r="32" spans="1:10" ht="63" customHeight="1">
-      <c r="A32" s="165" t="str">
+      <c r="A32" s="164" t="str">
         <f t="shared" ref="A32:A40" si="5">IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-22]</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="C32" s="117" t="s">
-        <v>524</v>
-      </c>
-      <c r="D32" s="187" t="s">
-        <v>531</v>
-      </c>
-      <c r="E32" s="186"/>
+        <v>497</v>
+      </c>
+      <c r="D32" s="186" t="s">
+        <v>504</v>
+      </c>
+      <c r="E32" s="185"/>
       <c r="F32" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="242">
+      <c r="H32" s="238">
         <v>42412</v>
       </c>
-      <c r="I32" s="188"/>
+      <c r="I32" s="187"/>
       <c r="J32" s="105"/>
     </row>
     <row r="33" spans="1:10" ht="89.25">
-      <c r="A33" s="165" t="str">
+      <c r="A33" s="164" t="str">
         <f t="shared" si="5"/>
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>515</v>
-      </c>
-      <c r="D33" s="187" t="s">
-        <v>532</v>
-      </c>
-      <c r="E33" s="186"/>
+        <v>488</v>
+      </c>
+      <c r="D33" s="186" t="s">
+        <v>505</v>
+      </c>
+      <c r="E33" s="185"/>
       <c r="F33" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="242">
+      <c r="H33" s="238">
         <v>42412</v>
       </c>
-      <c r="I33" s="188"/>
+      <c r="I33" s="187"/>
       <c r="J33" s="105"/>
     </row>
     <row r="34" spans="1:10" ht="89.25">
-      <c r="A34" s="165" t="str">
+      <c r="A34" s="164" t="str">
         <f t="shared" si="5"/>
         <v>[Admin_login-24]</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="C34" s="117" t="s">
-        <v>515</v>
-      </c>
-      <c r="D34" s="187" t="s">
-        <v>533</v>
-      </c>
-      <c r="E34" s="186"/>
+        <v>488</v>
+      </c>
+      <c r="D34" s="186" t="s">
+        <v>506</v>
+      </c>
+      <c r="E34" s="185"/>
       <c r="F34" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="242">
+      <c r="H34" s="238">
         <v>42412</v>
       </c>
-      <c r="I34" s="188"/>
+      <c r="I34" s="187"/>
       <c r="J34" s="105"/>
     </row>
     <row r="35" spans="1:10" ht="80.25" customHeight="1">
-      <c r="A35" s="165" t="str">
+      <c r="A35" s="164" t="str">
         <f t="shared" si="5"/>
         <v>[Admin_login-25]</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>515</v>
-      </c>
-      <c r="D35" s="187" t="s">
-        <v>534</v>
-      </c>
-      <c r="E35" s="186"/>
+        <v>488</v>
+      </c>
+      <c r="D35" s="186" t="s">
+        <v>507</v>
+      </c>
+      <c r="E35" s="185"/>
       <c r="F35" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="242">
+      <c r="H35" s="238">
         <v>42412</v>
       </c>
-      <c r="I35" s="188"/>
+      <c r="I35" s="187"/>
       <c r="J35" s="105"/>
     </row>
     <row r="36" spans="1:10" ht="89.25">
-      <c r="A36" s="165" t="str">
+      <c r="A36" s="164" t="str">
         <f t="shared" si="5"/>
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>515</v>
-      </c>
-      <c r="D36" s="187" t="s">
-        <v>536</v>
-      </c>
-      <c r="E36" s="186"/>
+        <v>488</v>
+      </c>
+      <c r="D36" s="186" t="s">
+        <v>509</v>
+      </c>
+      <c r="E36" s="185"/>
       <c r="F36" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="242">
+      <c r="H36" s="238">
         <v>42412</v>
       </c>
-      <c r="I36" s="188"/>
+      <c r="I36" s="187"/>
       <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" ht="63.75">
-      <c r="A37" s="165" t="str">
+      <c r="A37" s="164" t="str">
         <f t="shared" ref="A37:A39" si="6">IF(OR(B37&lt;&gt;"",D37&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="C37" s="117" t="s">
-        <v>526</v>
-      </c>
-      <c r="D37" s="187" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="186"/>
+        <v>499</v>
+      </c>
+      <c r="D37" s="186" t="s">
+        <v>500</v>
+      </c>
+      <c r="E37" s="185"/>
       <c r="F37" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="242">
+      <c r="H37" s="238">
         <v>42412</v>
       </c>
-      <c r="I37" s="188"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="105"/>
     </row>
     <row r="38" spans="1:10" ht="61.5" customHeight="1">
-      <c r="A38" s="165" t="str">
+      <c r="A38" s="164" t="str">
         <f t="shared" si="6"/>
         <v>[Admin_login-28]</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="C38" s="117" t="s">
-        <v>559</v>
-      </c>
-      <c r="D38" s="187" t="s">
-        <v>560</v>
-      </c>
-      <c r="E38" s="186"/>
+        <v>532</v>
+      </c>
+      <c r="D38" s="186" t="s">
+        <v>533</v>
+      </c>
+      <c r="E38" s="185"/>
       <c r="F38" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="242">
+      <c r="H38" s="238">
         <v>42412</v>
       </c>
-      <c r="I38" s="188"/>
+      <c r="I38" s="187"/>
       <c r="J38" s="105"/>
     </row>
     <row r="39" spans="1:10" ht="71.25" customHeight="1">
-      <c r="A39" s="165" t="str">
+      <c r="A39" s="164" t="str">
         <f t="shared" si="6"/>
         <v>[Admin_login-29]</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="C39" s="117" t="s">
-        <v>555</v>
-      </c>
-      <c r="D39" s="187" t="s">
-        <v>556</v>
-      </c>
-      <c r="E39" s="186"/>
+        <v>528</v>
+      </c>
+      <c r="D39" s="186" t="s">
+        <v>529</v>
+      </c>
+      <c r="E39" s="185"/>
       <c r="F39" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="242">
+      <c r="H39" s="238">
         <v>42412</v>
       </c>
-      <c r="I39" s="188"/>
+      <c r="I39" s="187"/>
       <c r="J39" s="105"/>
     </row>
     <row r="40" spans="1:10" ht="63.75">
-      <c r="A40" s="165" t="str">
+      <c r="A40" s="164" t="str">
         <f t="shared" si="5"/>
         <v>[Admin_login-30]</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="C40" s="117" t="s">
-        <v>517</v>
-      </c>
-      <c r="D40" s="187" t="s">
-        <v>521</v>
-      </c>
-      <c r="E40" s="186"/>
+        <v>490</v>
+      </c>
+      <c r="D40" s="186" t="s">
+        <v>494</v>
+      </c>
+      <c r="E40" s="185"/>
       <c r="F40" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="242">
+      <c r="H40" s="238">
         <v>42412</v>
       </c>
-      <c r="I40" s="188"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A41" s="165"/>
-      <c r="B41" s="184" t="s">
-        <v>522</v>
-      </c>
-      <c r="C41" s="183"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="242"/>
-      <c r="I41" s="185"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="183" t="s">
+        <v>495</v>
+      </c>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="238"/>
+      <c r="I41" s="184"/>
       <c r="J41" s="105"/>
     </row>
     <row r="42" spans="1:10" ht="51">
-      <c r="A42" s="165" t="str">
+      <c r="A42" s="164" t="str">
         <f t="shared" ref="A42:A52" si="7">IF(OR(B42&lt;&gt;"",D42&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-32]</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="D42" s="187" t="s">
-        <v>571</v>
-      </c>
-      <c r="E42" s="186"/>
+        <v>503</v>
+      </c>
+      <c r="D42" s="186" t="s">
+        <v>544</v>
+      </c>
+      <c r="E42" s="185"/>
       <c r="F42" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="242">
+      <c r="H42" s="238">
         <v>42412</v>
       </c>
       <c r="I42" s="125"/>
       <c r="J42" s="105"/>
     </row>
     <row r="43" spans="1:10" ht="63.75">
-      <c r="A43" s="165" t="str">
+      <c r="A43" s="164" t="str">
         <f t="shared" ref="A43" si="8">IF(OR(B43&lt;&gt;"",D43&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-33]</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="C43" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D43" s="187" t="s">
-        <v>540</v>
-      </c>
-      <c r="E43" s="186"/>
+        <v>512</v>
+      </c>
+      <c r="D43" s="186" t="s">
+        <v>513</v>
+      </c>
+      <c r="E43" s="185"/>
       <c r="F43" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="242">
+      <c r="H43" s="238">
         <v>42412</v>
       </c>
       <c r="I43" s="125"/>
       <c r="J43" s="105"/>
     </row>
     <row r="44" spans="1:10" ht="63.75">
-      <c r="A44" s="165" t="str">
+      <c r="A44" s="164" t="str">
         <f t="shared" ref="A44" si="9">IF(OR(B44&lt;&gt;"",D44&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-34]</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D44" s="187" t="s">
-        <v>544</v>
-      </c>
-      <c r="E44" s="186"/>
+        <v>512</v>
+      </c>
+      <c r="D44" s="186" t="s">
+        <v>517</v>
+      </c>
+      <c r="E44" s="185"/>
       <c r="F44" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="242">
+      <c r="H44" s="238">
         <v>42412</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="105"/>
     </row>
     <row r="45" spans="1:10" ht="63.75">
-      <c r="A45" s="165" t="str">
+      <c r="A45" s="164" t="str">
         <f t="shared" ref="A45" si="10">IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-35]</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="C45" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D45" s="187" t="s">
-        <v>545</v>
-      </c>
-      <c r="E45" s="186"/>
+        <v>512</v>
+      </c>
+      <c r="D45" s="186" t="s">
+        <v>518</v>
+      </c>
+      <c r="E45" s="185"/>
       <c r="F45" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="242">
+      <c r="H45" s="238">
         <v>42412</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="105"/>
     </row>
     <row r="46" spans="1:10" ht="76.5">
-      <c r="A46" s="165" t="str">
+      <c r="A46" s="164" t="str">
         <f t="shared" ref="A46" si="11">IF(OR(B46&lt;&gt;"",D46&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-36]</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="C46" s="117" t="s">
-        <v>539</v>
-      </c>
-      <c r="D46" s="187" t="s">
-        <v>546</v>
-      </c>
-      <c r="E46" s="186"/>
+        <v>512</v>
+      </c>
+      <c r="D46" s="186" t="s">
+        <v>519</v>
+      </c>
+      <c r="E46" s="185"/>
       <c r="F46" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="242">
+      <c r="H46" s="238">
         <v>42412</v>
       </c>
       <c r="I46" s="125"/>
       <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" ht="76.5">
-      <c r="A47" s="165" t="str">
+      <c r="A47" s="164" t="str">
         <f t="shared" si="7"/>
         <v>[Admin_login-37]</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="C47" s="117" t="s">
-        <v>537</v>
-      </c>
-      <c r="D47" s="187" t="s">
-        <v>538</v>
-      </c>
-      <c r="E47" s="186"/>
+        <v>510</v>
+      </c>
+      <c r="D47" s="186" t="s">
+        <v>511</v>
+      </c>
+      <c r="E47" s="185"/>
       <c r="F47" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="242">
+      <c r="H47" s="238">
         <v>42412</v>
       </c>
       <c r="I47" s="125"/>
       <c r="J47" s="105"/>
     </row>
     <row r="48" spans="1:10" ht="76.5">
-      <c r="A48" s="165" t="str">
+      <c r="A48" s="164" t="str">
         <f t="shared" si="7"/>
         <v>[Admin_login-38]</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>537</v>
-      </c>
-      <c r="D48" s="187" t="s">
-        <v>569</v>
-      </c>
-      <c r="E48" s="186"/>
+        <v>510</v>
+      </c>
+      <c r="D48" s="186" t="s">
+        <v>542</v>
+      </c>
+      <c r="E48" s="185"/>
       <c r="F48" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="242">
+      <c r="H48" s="238">
         <v>42412</v>
       </c>
       <c r="I48" s="125"/>
       <c r="J48" s="105"/>
     </row>
     <row r="49" spans="1:10" ht="76.5">
-      <c r="A49" s="165" t="str">
+      <c r="A49" s="164" t="str">
         <f t="shared" si="7"/>
         <v>[Admin_login-39]</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>537</v>
-      </c>
-      <c r="D49" s="187" t="s">
-        <v>567</v>
-      </c>
-      <c r="E49" s="186"/>
+        <v>510</v>
+      </c>
+      <c r="D49" s="186" t="s">
+        <v>540</v>
+      </c>
+      <c r="E49" s="185"/>
       <c r="F49" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="242">
+      <c r="H49" s="238">
         <v>42412</v>
       </c>
-      <c r="I49" s="186"/>
+      <c r="I49" s="185"/>
       <c r="J49" s="105"/>
     </row>
     <row r="50" spans="1:10" ht="76.5">
-      <c r="A50" s="165" t="str">
+      <c r="A50" s="164" t="str">
         <f t="shared" si="7"/>
         <v>[Admin_login-40]</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>537</v>
-      </c>
-      <c r="D50" s="187" t="s">
-        <v>568</v>
-      </c>
-      <c r="E50" s="186"/>
+        <v>510</v>
+      </c>
+      <c r="D50" s="186" t="s">
+        <v>541</v>
+      </c>
+      <c r="E50" s="185"/>
       <c r="F50" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="242">
+      <c r="H50" s="238">
         <v>42412</v>
       </c>
       <c r="I50" s="125"/>
       <c r="J50" s="105"/>
     </row>
     <row r="51" spans="1:10" ht="38.25">
-      <c r="A51" s="165" t="str">
+      <c r="A51" s="164" t="str">
         <f t="shared" si="7"/>
         <v>[Admin_login-41]</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>587</v>
-      </c>
-      <c r="D51" s="187" t="s">
-        <v>563</v>
-      </c>
-      <c r="E51" s="186"/>
+        <v>560</v>
+      </c>
+      <c r="D51" s="186" t="s">
+        <v>536</v>
+      </c>
+      <c r="E51" s="185"/>
       <c r="F51" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="242">
+      <c r="H51" s="238">
         <v>42412</v>
       </c>
       <c r="I51" s="125"/>
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" ht="51">
-      <c r="A52" s="165" t="str">
+      <c r="A52" s="164" t="str">
         <f t="shared" si="7"/>
         <v>[Admin_login-42]</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>561</v>
-      </c>
-      <c r="D52" s="187" t="s">
-        <v>562</v>
-      </c>
-      <c r="E52" s="186"/>
+        <v>534</v>
+      </c>
+      <c r="D52" s="186" t="s">
+        <v>535</v>
+      </c>
+      <c r="E52" s="185"/>
       <c r="F52" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="242">
+      <c r="H52" s="238">
         <v>42412</v>
       </c>
       <c r="I52" s="125"/>
       <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A53" s="165"/>
-      <c r="B53" s="184" t="s">
-        <v>570</v>
-      </c>
-      <c r="C53" s="183"/>
-      <c r="D53" s="183"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="242"/>
-      <c r="I53" s="185"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="183" t="s">
+        <v>543</v>
+      </c>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="182"/>
+      <c r="H53" s="238"/>
+      <c r="I53" s="184"/>
       <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10" ht="81" customHeight="1">
-      <c r="A54" s="165" t="str">
+      <c r="A54" s="164" t="str">
         <f t="shared" ref="A54:A67" si="12">IF(OR(B54&lt;&gt;"",D54&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-44]</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="D54" s="187" t="s">
-        <v>572</v>
-      </c>
-      <c r="E54" s="186"/>
+        <v>503</v>
+      </c>
+      <c r="D54" s="186" t="s">
+        <v>545</v>
+      </c>
+      <c r="E54" s="185"/>
       <c r="F54" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="242">
+      <c r="H54" s="238">
         <v>42412</v>
       </c>
       <c r="I54" s="125"/>
       <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10" ht="78" customHeight="1">
-      <c r="A55" s="165" t="str">
+      <c r="A55" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-45]</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="D55" s="187" t="s">
-        <v>575</v>
-      </c>
-      <c r="E55" s="186"/>
+        <v>558</v>
+      </c>
+      <c r="D55" s="186" t="s">
+        <v>548</v>
+      </c>
+      <c r="E55" s="185"/>
       <c r="F55" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="242">
+      <c r="H55" s="238">
         <v>42412</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="105"/>
     </row>
     <row r="56" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A56" s="165" t="str">
+      <c r="A56" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-46]</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="D56" s="187" t="s">
-        <v>584</v>
-      </c>
-      <c r="E56" s="186"/>
+        <v>558</v>
+      </c>
+      <c r="D56" s="186" t="s">
+        <v>557</v>
+      </c>
+      <c r="E56" s="185"/>
       <c r="F56" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="242">
+      <c r="H56" s="238">
         <v>42412</v>
       </c>
       <c r="I56" s="125"/>
       <c r="J56" s="105"/>
     </row>
     <row r="57" spans="1:10" ht="80.25" customHeight="1">
-      <c r="A57" s="165" t="str">
+      <c r="A57" s="164" t="str">
         <f t="shared" ref="A57" si="13">IF(OR(B57&lt;&gt;"",D57&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-47]</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="D57" s="187" t="s">
-        <v>595</v>
-      </c>
-      <c r="E57" s="186"/>
+        <v>558</v>
+      </c>
+      <c r="D57" s="186" t="s">
+        <v>568</v>
+      </c>
+      <c r="E57" s="185"/>
       <c r="F57" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="242">
+      <c r="H57" s="238">
         <v>42412</v>
       </c>
       <c r="I57" s="125"/>
       <c r="J57" s="105"/>
     </row>
     <row r="58" spans="1:10" ht="89.25">
-      <c r="A58" s="165" t="str">
+      <c r="A58" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-48]</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="C58" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="D58" s="187" t="s">
-        <v>583</v>
-      </c>
-      <c r="E58" s="186"/>
+        <v>558</v>
+      </c>
+      <c r="D58" s="186" t="s">
+        <v>556</v>
+      </c>
+      <c r="E58" s="185"/>
       <c r="F58" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G58" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="242">
+      <c r="H58" s="238">
         <v>42412</v>
       </c>
       <c r="I58" s="125"/>
       <c r="J58" s="105"/>
     </row>
     <row r="59" spans="1:10" ht="76.5">
-      <c r="A59" s="165" t="str">
+      <c r="A59" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-49]</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="C59" s="117" t="s">
-        <v>576</v>
-      </c>
-      <c r="D59" s="187" t="s">
-        <v>582</v>
-      </c>
-      <c r="E59" s="186"/>
+        <v>549</v>
+      </c>
+      <c r="D59" s="186" t="s">
+        <v>555</v>
+      </c>
+      <c r="E59" s="185"/>
       <c r="F59" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="242">
+      <c r="H59" s="238">
         <v>42412</v>
       </c>
       <c r="I59" s="125"/>
       <c r="J59" s="105"/>
     </row>
     <row r="60" spans="1:10" ht="89.25">
-      <c r="A60" s="165" t="str">
+      <c r="A60" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-50]</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>586</v>
-      </c>
-      <c r="D60" s="187" t="s">
-        <v>581</v>
-      </c>
-      <c r="E60" s="186"/>
+        <v>559</v>
+      </c>
+      <c r="D60" s="186" t="s">
+        <v>554</v>
+      </c>
+      <c r="E60" s="185"/>
       <c r="F60" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="242">
+      <c r="H60" s="238">
         <v>42412</v>
       </c>
       <c r="I60" s="125"/>
       <c r="J60" s="105"/>
     </row>
     <row r="61" spans="1:10" ht="76.5">
-      <c r="A61" s="165" t="str">
+      <c r="A61" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-51]</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>586</v>
-      </c>
-      <c r="D61" s="187" t="s">
-        <v>580</v>
-      </c>
-      <c r="E61" s="186"/>
+        <v>559</v>
+      </c>
+      <c r="D61" s="186" t="s">
+        <v>553</v>
+      </c>
+      <c r="E61" s="185"/>
       <c r="F61" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="242">
+      <c r="H61" s="238">
         <v>42412</v>
       </c>
       <c r="I61" s="125"/>
       <c r="J61" s="105"/>
     </row>
     <row r="62" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A62" s="165" t="str">
+      <c r="A62" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-52]</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>590</v>
-      </c>
-      <c r="D62" s="187" t="s">
-        <v>591</v>
-      </c>
-      <c r="E62" s="186"/>
+        <v>563</v>
+      </c>
+      <c r="D62" s="186" t="s">
+        <v>564</v>
+      </c>
+      <c r="E62" s="185"/>
       <c r="F62" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="242">
+      <c r="H62" s="238">
         <v>42412</v>
       </c>
       <c r="I62" s="125"/>
       <c r="J62" s="105"/>
     </row>
     <row r="63" spans="1:10" ht="73.5" customHeight="1">
-      <c r="A63" s="165" t="str">
+      <c r="A63" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-53]</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C63" s="117" t="s">
-        <v>593</v>
-      </c>
-      <c r="D63" s="187" t="s">
-        <v>592</v>
-      </c>
-      <c r="E63" s="186"/>
+        <v>566</v>
+      </c>
+      <c r="D63" s="186" t="s">
+        <v>565</v>
+      </c>
+      <c r="E63" s="185"/>
       <c r="F63" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H63" s="242">
+      <c r="H63" s="238">
         <v>42412</v>
       </c>
       <c r="I63" s="125"/>
       <c r="J63" s="105"/>
     </row>
     <row r="64" spans="1:10" ht="89.25">
-      <c r="A64" s="165" t="str">
+      <c r="A64" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-54]</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>597</v>
-      </c>
-      <c r="D64" s="187" t="s">
-        <v>598</v>
-      </c>
-      <c r="E64" s="186"/>
+        <v>570</v>
+      </c>
+      <c r="D64" s="186" t="s">
+        <v>571</v>
+      </c>
+      <c r="E64" s="185"/>
       <c r="F64" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="242">
+      <c r="H64" s="238">
         <v>42412</v>
       </c>
       <c r="I64" s="125"/>
       <c r="J64" s="105"/>
     </row>
     <row r="65" spans="1:10" ht="38.25">
-      <c r="A65" s="165" t="str">
+      <c r="A65" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-55]</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>599</v>
-      </c>
-      <c r="D65" s="187" t="s">
-        <v>600</v>
-      </c>
-      <c r="E65" s="168"/>
+        <v>572</v>
+      </c>
+      <c r="D65" s="186" t="s">
+        <v>573</v>
+      </c>
+      <c r="E65" s="167"/>
       <c r="F65" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G65" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="242">
+      <c r="H65" s="238">
         <v>42412</v>
       </c>
-      <c r="I65" s="168"/>
+      <c r="I65" s="167"/>
       <c r="J65" s="105"/>
     </row>
     <row r="66" spans="1:10" ht="38.25">
-      <c r="A66" s="165" t="str">
+      <c r="A66" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-56]</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>599</v>
-      </c>
-      <c r="D66" s="187" t="s">
-        <v>601</v>
-      </c>
-      <c r="E66" s="168"/>
+        <v>572</v>
+      </c>
+      <c r="D66" s="186" t="s">
+        <v>574</v>
+      </c>
+      <c r="E66" s="167"/>
       <c r="F66" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G66" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="242">
+      <c r="H66" s="238">
         <v>42412</v>
       </c>
-      <c r="I66" s="168"/>
+      <c r="I66" s="167"/>
       <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" ht="51">
-      <c r="A67" s="165" t="str">
+      <c r="A67" s="164" t="str">
         <f t="shared" si="12"/>
         <v>[Admin_login-57]</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>727</v>
-      </c>
-      <c r="D67" s="187" t="s">
-        <v>604</v>
-      </c>
-      <c r="E67" s="168"/>
+        <v>700</v>
+      </c>
+      <c r="D67" s="186" t="s">
+        <v>577</v>
+      </c>
+      <c r="E67" s="167"/>
       <c r="F67" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="242">
+      <c r="H67" s="238">
         <v>42412</v>
       </c>
-      <c r="I67" s="168"/>
+      <c r="I67" s="167"/>
       <c r="J67" s="105"/>
     </row>
     <row r="68" spans="1:10" ht="51">
-      <c r="A68" s="165" t="str">
+      <c r="A68" s="164" t="str">
         <f t="shared" ref="A68:A80" si="14">IF(OR(B68&lt;&gt;"",D68&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-58]</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="C68" s="117" t="s">
-        <v>606</v>
-      </c>
-      <c r="D68" s="187" t="s">
-        <v>604</v>
-      </c>
-      <c r="E68" s="168"/>
+        <v>579</v>
+      </c>
+      <c r="D68" s="186" t="s">
+        <v>577</v>
+      </c>
+      <c r="E68" s="167"/>
       <c r="F68" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="242">
+      <c r="H68" s="238">
         <v>42412</v>
       </c>
-      <c r="I68" s="168"/>
+      <c r="I68" s="167"/>
       <c r="J68" s="105"/>
     </row>
     <row r="69" spans="1:10" ht="38.25">
-      <c r="A69" s="165" t="str">
+      <c r="A69" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-59]</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D69" s="187" t="s">
-        <v>615</v>
-      </c>
-      <c r="E69" s="168"/>
+        <v>584</v>
+      </c>
+      <c r="D69" s="186" t="s">
+        <v>588</v>
+      </c>
+      <c r="E69" s="167"/>
       <c r="F69" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="242">
+      <c r="H69" s="238">
         <v>42412</v>
       </c>
-      <c r="I69" s="168"/>
+      <c r="I69" s="167"/>
       <c r="J69" s="105"/>
     </row>
     <row r="70" spans="1:10" ht="38.25">
-      <c r="A70" s="165" t="str">
+      <c r="A70" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-60]</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>611</v>
-      </c>
-      <c r="D70" s="187" t="s">
-        <v>614</v>
-      </c>
-      <c r="E70" s="168"/>
+        <v>584</v>
+      </c>
+      <c r="D70" s="186" t="s">
+        <v>587</v>
+      </c>
+      <c r="E70" s="167"/>
       <c r="F70" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G70" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="242">
+      <c r="H70" s="238">
         <v>42412</v>
       </c>
-      <c r="I70" s="168"/>
+      <c r="I70" s="167"/>
       <c r="J70" s="105"/>
     </row>
     <row r="71" spans="1:10" ht="51">
-      <c r="A71" s="165" t="str">
+      <c r="A71" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-61]</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="D71" s="187" t="s">
-        <v>626</v>
-      </c>
-      <c r="E71" s="168"/>
+        <v>585</v>
+      </c>
+      <c r="D71" s="186" t="s">
+        <v>599</v>
+      </c>
+      <c r="E71" s="167"/>
       <c r="F71" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="242">
+      <c r="H71" s="238">
         <v>42412</v>
       </c>
-      <c r="I71" s="168"/>
+      <c r="I71" s="167"/>
       <c r="J71" s="105"/>
     </row>
     <row r="72" spans="1:10" ht="51">
-      <c r="A72" s="165" t="str">
+      <c r="A72" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-62]</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>613</v>
-      </c>
-      <c r="D72" s="187" t="s">
-        <v>626</v>
-      </c>
-      <c r="E72" s="168"/>
+        <v>586</v>
+      </c>
+      <c r="D72" s="186" t="s">
+        <v>599</v>
+      </c>
+      <c r="E72" s="167"/>
       <c r="F72" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="242">
+      <c r="H72" s="238">
         <v>42412</v>
       </c>
-      <c r="I72" s="168"/>
+      <c r="I72" s="167"/>
       <c r="J72" s="105"/>
     </row>
     <row r="73" spans="1:10" ht="38.25">
-      <c r="A73" s="165" t="str">
+      <c r="A73" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-63]</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>620</v>
-      </c>
-      <c r="D73" s="187" t="s">
-        <v>624</v>
-      </c>
-      <c r="E73" s="168"/>
+        <v>593</v>
+      </c>
+      <c r="D73" s="186" t="s">
+        <v>597</v>
+      </c>
+      <c r="E73" s="167"/>
       <c r="F73" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="242">
+      <c r="H73" s="238">
         <v>42412</v>
       </c>
-      <c r="I73" s="168"/>
+      <c r="I73" s="167"/>
       <c r="J73" s="105"/>
     </row>
     <row r="74" spans="1:10" ht="38.25">
-      <c r="A74" s="165" t="str">
+      <c r="A74" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-64]</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>620</v>
-      </c>
-      <c r="D74" s="187" t="s">
-        <v>623</v>
-      </c>
-      <c r="E74" s="168"/>
+        <v>593</v>
+      </c>
+      <c r="D74" s="186" t="s">
+        <v>596</v>
+      </c>
+      <c r="E74" s="167"/>
       <c r="F74" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="242">
+      <c r="H74" s="238">
         <v>42412</v>
       </c>
-      <c r="I74" s="168"/>
+      <c r="I74" s="167"/>
       <c r="J74" s="105"/>
     </row>
     <row r="75" spans="1:10" ht="51">
-      <c r="A75" s="165" t="str">
+      <c r="A75" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-65]</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>621</v>
-      </c>
-      <c r="D75" s="187" t="s">
-        <v>625</v>
-      </c>
-      <c r="E75" s="168"/>
+        <v>594</v>
+      </c>
+      <c r="D75" s="186" t="s">
+        <v>598</v>
+      </c>
+      <c r="E75" s="167"/>
       <c r="F75" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G75" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="242">
+      <c r="H75" s="238">
         <v>42412</v>
       </c>
-      <c r="I75" s="168"/>
+      <c r="I75" s="167"/>
       <c r="J75" s="105"/>
     </row>
     <row r="76" spans="1:10" ht="51">
-      <c r="A76" s="165" t="str">
+      <c r="A76" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-66]</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>622</v>
-      </c>
-      <c r="D76" s="187" t="s">
-        <v>625</v>
-      </c>
-      <c r="E76" s="168"/>
+        <v>595</v>
+      </c>
+      <c r="D76" s="186" t="s">
+        <v>598</v>
+      </c>
+      <c r="E76" s="167"/>
       <c r="F76" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G76" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="242">
+      <c r="H76" s="238">
         <v>42412</v>
       </c>
-      <c r="I76" s="168"/>
+      <c r="I76" s="167"/>
       <c r="J76" s="105"/>
     </row>
     <row r="77" spans="1:10" ht="38.25">
-      <c r="A77" s="165" t="str">
+      <c r="A77" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-67]</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>631</v>
-      </c>
-      <c r="D77" s="187" t="s">
-        <v>636</v>
-      </c>
-      <c r="E77" s="168"/>
+        <v>604</v>
+      </c>
+      <c r="D77" s="186" t="s">
+        <v>609</v>
+      </c>
+      <c r="E77" s="167"/>
       <c r="F77" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="242">
+      <c r="H77" s="238">
         <v>42412</v>
       </c>
-      <c r="I77" s="168"/>
+      <c r="I77" s="167"/>
       <c r="J77" s="105"/>
     </row>
     <row r="78" spans="1:10" ht="38.25">
-      <c r="A78" s="165" t="str">
+      <c r="A78" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-68]</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>631</v>
-      </c>
-      <c r="D78" s="187" t="s">
-        <v>635</v>
-      </c>
-      <c r="E78" s="168"/>
+        <v>604</v>
+      </c>
+      <c r="D78" s="186" t="s">
+        <v>608</v>
+      </c>
+      <c r="E78" s="167"/>
       <c r="F78" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="242">
+      <c r="H78" s="238">
         <v>42412</v>
       </c>
-      <c r="I78" s="168"/>
+      <c r="I78" s="167"/>
       <c r="J78" s="105"/>
     </row>
     <row r="79" spans="1:10" ht="51">
-      <c r="A79" s="165" t="str">
+      <c r="A79" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-69]</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>632</v>
-      </c>
-      <c r="D79" s="187" t="s">
-        <v>634</v>
-      </c>
-      <c r="E79" s="168"/>
+        <v>605</v>
+      </c>
+      <c r="D79" s="186" t="s">
+        <v>607</v>
+      </c>
+      <c r="E79" s="167"/>
       <c r="F79" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="242">
+      <c r="H79" s="238">
         <v>42412</v>
       </c>
-      <c r="I79" s="168"/>
+      <c r="I79" s="167"/>
       <c r="J79" s="105"/>
     </row>
     <row r="80" spans="1:10" ht="51">
-      <c r="A80" s="165" t="str">
+      <c r="A80" s="164" t="str">
         <f t="shared" si="14"/>
         <v>[Admin_login-70]</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>633</v>
-      </c>
-      <c r="D80" s="187" t="s">
-        <v>634</v>
-      </c>
-      <c r="E80" s="168"/>
+        <v>606</v>
+      </c>
+      <c r="D80" s="186" t="s">
+        <v>607</v>
+      </c>
+      <c r="E80" s="167"/>
       <c r="F80" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="242">
+      <c r="H80" s="238">
         <v>42412</v>
       </c>
-      <c r="I80" s="168"/>
+      <c r="I80" s="167"/>
       <c r="J80" s="105"/>
     </row>
   </sheetData>
@@ -33465,7 +33563,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:1">
